--- a/Filtered Regions.xlsx
+++ b/Filtered Regions.xlsx
@@ -511,42 +511,42 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>csa_region</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>fm_region</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>fh_region</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>mp_region</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unemployment</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Gini</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Population</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>csa_region</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>fm_region</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>fh_region</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>mp_region</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Unemployment</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Gini</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -684,28 +684,28 @@
         <v>0.2939013366799444</v>
       </c>
       <c r="P2" t="n">
-        <v>24686</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.7313329730219251</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7313329730219251</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.178545909356829</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.178545909356829</v>
+        <v>-1.323666908014073</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.323666908014073</v>
+        <v>-0.4361533895758138</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.4361533895758138</v>
+        <v>-1.558699129013596</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.558699129013596</v>
+        <v>24706</v>
       </c>
       <c r="X2" t="n">
         <v>-0.6484378404380192</v>
@@ -726,7 +726,7 @@
         <v>-0.8437423438602298</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.117958939864491</v>
+        <v>-2.118104292495874</v>
       </c>
       <c r="AE2" t="n">
         <v>-1.558699129013598</v>
@@ -735,13 +735,13 @@
         <v>-1.862485811284649</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3571191841331083</v>
+        <v>-0.363612688778794</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.312578423652882</v>
+        <v>-1.312676287947743</v>
       </c>
       <c r="AI2" t="n">
-        <v>-3.110246844682527</v>
+        <v>-3.112936908484572</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>-76779.55360783286</v>
+        <v>-76908.21926101984</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P3" t="n">
-        <v>10101</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7021744100489333</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.7021744100489333</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2008269094751838</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2008269094751838</v>
+        <v>-1.758499661305052</v>
       </c>
       <c r="U3" t="n">
-        <v>-1.758499661305052</v>
+        <v>0.6451708757749506</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6451708757749506</v>
+        <v>-1.85761173292786</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.85761173292786</v>
+        <v>10202</v>
       </c>
       <c r="X3" t="n">
         <v>-0.7639082715841724</v>
@@ -858,7 +858,7 @@
         <v>-0.9079452209201033</v>
       </c>
       <c r="AD3" t="n">
-        <v>-2.511715443160832</v>
+        <v>-2.511093409044654</v>
       </c>
       <c r="AE3" t="n">
         <v>-1.857611732927862</v>
@@ -867,13 +867,13 @@
         <v>-1.750910447903848</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.761860451038822</v>
+        <v>-1.758375036178107</v>
       </c>
       <c r="AH3" t="n">
-        <v>-1.393829826777357</v>
+        <v>-1.394029866887343</v>
       </c>
       <c r="AI3" t="n">
-        <v>-3.959941752957245</v>
+        <v>-3.958981215254542</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>-39999.37164662113</v>
+        <v>-40389.52635802684</v>
       </c>
     </row>
     <row r="4">
@@ -948,28 +948,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P4" t="n">
-        <v>19448</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7021744100489333</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.7021744100489333</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.35431824362385</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.35431824362385</v>
+        <v>-1.271594668002031</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.271594668002031</v>
+        <v>0.1460981379207516</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1460981379207516</v>
+        <v>-0.6751875386829367</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.6751875386829367</v>
+        <v>18650</v>
       </c>
       <c r="X4" t="n">
         <v>-0.02869970798258816</v>
@@ -990,22 +990,22 @@
         <v>-0.5593356221520194</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.9449660694468641</v>
+        <v>-0.9467200636008456</v>
       </c>
       <c r="AE4" t="n">
         <v>-0.6751875386829385</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.28520324281293</v>
+        <v>-1.285203242812931</v>
       </c>
       <c r="AG4" t="n">
-        <v>-1.077943657930177</v>
+        <v>-1.081429093140738</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1.372224150390916</v>
+        <v>-1.372024881166782</v>
       </c>
       <c r="AI4" t="n">
-        <v>-2.414929023076295</v>
+        <v>-2.417449186425844</v>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>-46965.53964078778</v>
+        <v>-45085.42732684199</v>
       </c>
     </row>
     <row r="5">
@@ -1080,28 +1080,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P5" t="n">
-        <v>12589</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.8479672249138923</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.8479672249138923</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.4360152440578176</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.4360152440578176</v>
+        <v>-1.195489086445969</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.195489086445969</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.8418379284758447</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.8418379284758447</v>
+        <v>12439</v>
       </c>
       <c r="X5" t="n">
         <v>-0.2244640548114494</v>
@@ -1122,22 +1122,22 @@
         <v>-0.6080227116407017</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.74369573702237</v>
+        <v>-1.745028404811995</v>
       </c>
       <c r="AE5" t="n">
         <v>-0.8418379284758465</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.8109096701357085</v>
+        <v>-0.8109096701357082</v>
       </c>
       <c r="AG5" t="n">
-        <v>-1.766119493066691</v>
+        <v>-1.764402797258351</v>
       </c>
       <c r="AH5" t="n">
-        <v>-1.79903034824087</v>
+        <v>-1.799090674472019</v>
       </c>
       <c r="AI5" t="n">
-        <v>-3.16994348449417</v>
+        <v>-3.170158334261349</v>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="AN5" t="n">
-        <v>-39906.4185262971</v>
+        <v>-39433.59951987692</v>
       </c>
     </row>
     <row r="6">
@@ -1212,28 +1212,28 @@
         <v>0.2179535716245132</v>
       </c>
       <c r="P6" t="n">
-        <v>13772</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.745912254508421</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.745912254508421</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.3097562433871405</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.3097562433871405</v>
+        <v>-1.363853806989319</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.363853806989319</v>
+        <v>0.8115284550596835</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8115284550596835</v>
+        <v>-2.26233410813921</v>
       </c>
       <c r="W6" t="n">
-        <v>-2.26233410813921</v>
+        <v>13025</v>
       </c>
       <c r="X6" t="n">
         <v>-0.4739313926526137</v>
@@ -1254,22 +1254,22 @@
         <v>-0.629847358764404</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1.390048678915295</v>
+        <v>-1.389564925252054</v>
       </c>
       <c r="AE6" t="n">
         <v>-2.262334108139211</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.2813384440380136</v>
+        <v>-0.2813384440380134</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7866507535514446</v>
+        <v>0.7872371925903489</v>
       </c>
       <c r="AH6" t="n">
-        <v>-1.447641975668199</v>
+        <v>-1.447733654677885</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1.695881281892028</v>
+        <v>-1.694402480082553</v>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>-23355.67701421701</v>
+        <v>-22069.59230307525</v>
       </c>
     </row>
     <row r="7">
@@ -1344,28 +1344,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P7" t="n">
-        <v>37196</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.745912254508421</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.745912254508421</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2602429097907965</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.2602429097907965</v>
+        <v>-1.684167031174368</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.684167031174368</v>
+        <v>-1.184762496357112</v>
       </c>
       <c r="V7" t="n">
-        <v>-1.184762496357112</v>
+        <v>-0.4794394617833275</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.4794394617833275</v>
+        <v>36767</v>
       </c>
       <c r="X7" t="n">
         <v>-0.03866269142060985</v>
@@ -1386,22 +1386,22 @@
         <v>-0.7028650726308937</v>
       </c>
       <c r="AD7" t="n">
-        <v>-1.908608462946065</v>
+        <v>-1.906860240937891</v>
       </c>
       <c r="AE7" t="n">
         <v>-0.4794394617833293</v>
       </c>
       <c r="AF7" t="n">
-        <v>-2.300946157032655</v>
+        <v>-2.300946157032654</v>
       </c>
       <c r="AG7" t="n">
-        <v>-2.456441653882161</v>
+        <v>-2.45899358940334</v>
       </c>
       <c r="AH7" t="n">
-        <v>-1.447976380855535</v>
+        <v>-1.448171588751566</v>
       </c>
       <c r="AI7" t="n">
-        <v>-3.991339860179316</v>
+        <v>-3.992676302468734</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>-148461.8774392298</v>
+        <v>-146798.7296128679</v>
       </c>
     </row>
     <row r="8">
@@ -1476,28 +1476,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P8" t="n">
-        <v>8111</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6292780026164537</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.6292780026164537</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2726212431898825</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.2726212431898825</v>
+        <v>-1.876827752732165</v>
       </c>
       <c r="U8" t="n">
-        <v>-1.876827752732165</v>
+        <v>-0.6856897585029132</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.6856897585029132</v>
+        <v>-0.7677710885678846</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.7677710885678846</v>
+        <v>7422</v>
       </c>
       <c r="X8" t="n">
         <v>-0.8001410401604883</v>
@@ -1518,7 +1518,7 @@
         <v>-1.0664774300968</v>
       </c>
       <c r="AD8" t="n">
-        <v>-4.659350210796437</v>
+        <v>-4.66059250767103</v>
       </c>
       <c r="AE8" t="n">
         <v>-0.7677710885678863</v>
@@ -1527,13 +1527,13 @@
         <v>-3.5026943416011</v>
       </c>
       <c r="AG8" t="n">
-        <v>-3.641868233102691</v>
+        <v>-3.639774383610043</v>
       </c>
       <c r="AH8" t="n">
-        <v>-1.349437236624609</v>
+        <v>-1.349467250362595</v>
       </c>
       <c r="AI8" t="n">
-        <v>-6.501151039528255</v>
+        <v>-6.502485818921215</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="AN8" t="n">
-        <v>-52730.83608161367</v>
+        <v>-48261.44974803326</v>
       </c>
     </row>
     <row r="9">
@@ -1608,28 +1608,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P9" t="n">
-        <v>14651</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6875951285624373</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.6875951285624373</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2602429097907965</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.2602429097907965</v>
+        <v>-1.103952261002353</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.103952261002353</v>
+        <v>-0.2697958102910808</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.2697958102910808</v>
+        <v>-1.15133150951982</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.15133150951982</v>
+        <v>14595</v>
       </c>
       <c r="X9" t="n">
         <v>-0.2926352462371007</v>
@@ -1650,22 +1650,22 @@
         <v>-0.7736054692689317</v>
       </c>
       <c r="AD9" t="n">
-        <v>-1.093835907705932</v>
+        <v>-1.094629091501963</v>
       </c>
       <c r="AE9" t="n">
         <v>-1.151331509519821</v>
       </c>
       <c r="AF9" t="n">
-        <v>-1.384546395110199</v>
+        <v>-1.3845463951102</v>
       </c>
       <c r="AG9" t="n">
-        <v>-2.494085888618607</v>
+        <v>-2.497694255699615</v>
       </c>
       <c r="AH9" t="n">
-        <v>-1.399264965186527</v>
+        <v>-1.399392484475585</v>
       </c>
       <c r="AI9" t="n">
-        <v>-3.238476782656878</v>
+        <v>-3.241892931188882</v>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="AN9" t="n">
-        <v>-47446.92334270592</v>
+        <v>-47315.42733070174</v>
       </c>
     </row>
     <row r="10">
@@ -1740,28 +1740,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P10" t="n">
-        <v>9726</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6875951285624373</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.6875951285624373</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2651942431504309</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.2651942431504309</v>
+        <v>-1.432407928770621</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.432407928770621</v>
+        <v>-1.351120075641845</v>
       </c>
       <c r="V10" t="n">
-        <v>-1.351120075641845</v>
+        <v>-1.712123297394367</v>
       </c>
       <c r="W10" t="n">
-        <v>-1.712123297394367</v>
+        <v>9777</v>
       </c>
       <c r="X10" t="n">
         <v>-0.6600969628247627</v>
@@ -1782,7 +1782,7 @@
         <v>-1.003571463926368</v>
       </c>
       <c r="AD10" t="n">
-        <v>-2.620125783618208</v>
+        <v>-2.62054762944072</v>
       </c>
       <c r="AE10" t="n">
         <v>-1.712123297394369</v>
@@ -1791,13 +1791,13 @@
         <v>-1.605009448434814</v>
       </c>
       <c r="AG10" t="n">
-        <v>-4.026083807253247</v>
+        <v>-4.024032928512498</v>
       </c>
       <c r="AH10" t="n">
-        <v>-1.420124659377079</v>
+        <v>-1.420321430468494</v>
       </c>
       <c r="AI10" t="n">
-        <v>-4.905293737456343</v>
+        <v>-4.907058423777134</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>-47708.8868905004</v>
+        <v>-47976.31020926905</v>
       </c>
     </row>
     <row r="11">
@@ -1872,28 +1872,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P11" t="n">
-        <v>18068</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6146987211299578</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.6146987211299578</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.2019426058941365</v>
+        <v>-0.178545909356829</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.178545909356829</v>
+        <v>-1.540032646777857</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.540032646777857</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-1.389403494938258</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.389403494938258</v>
+        <v>18516</v>
       </c>
       <c r="X11" t="n">
         <v>-0.9024683153352618</v>
@@ -1914,7 +1914,7 @@
         <v>-0.8689032351266996</v>
       </c>
       <c r="AD11" t="n">
-        <v>-2.598418338699857</v>
+        <v>-2.597410616738761</v>
       </c>
       <c r="AE11" t="n">
         <v>-1.38940349493826</v>
@@ -1923,13 +1923,13 @@
         <v>-2.201488312748167</v>
       </c>
       <c r="AG11" t="n">
-        <v>-1.334541955853096</v>
+        <v>-1.332894850641132</v>
       </c>
       <c r="AH11" t="n">
-        <v>-1.035410468785266</v>
+        <v>-1.035370861425551</v>
       </c>
       <c r="AI11" t="n">
-        <v>-3.758925880835977</v>
+        <v>-3.75821921480171</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>-67916.27281494443</v>
+        <v>-69587.18698126846</v>
       </c>
     </row>
     <row r="12">
@@ -2004,28 +2004,28 @@
         <v>-0.05743992393804041</v>
       </c>
       <c r="P12" t="n">
-        <v>18863</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7167536915354292</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.7167536915354292</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.3345129101853124</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.3345129101853124</v>
+        <v>-1.100472023019202</v>
       </c>
       <c r="U12" t="n">
-        <v>-1.100472023019202</v>
+        <v>0.1460981379207516</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1460981379207516</v>
+        <v>-2.225300688185231</v>
       </c>
       <c r="W12" t="n">
-        <v>-2.225300688185231</v>
+        <v>18745</v>
       </c>
       <c r="X12" t="n">
         <v>-0.396130324075444</v>
@@ -2046,22 +2046,22 @@
         <v>-0.8118107109384036</v>
       </c>
       <c r="AD12" t="n">
-        <v>-2.109918564889217</v>
+        <v>-2.110742504264321</v>
       </c>
       <c r="AE12" t="n">
         <v>-2.225300688185233</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.2304203862225472</v>
+        <v>-0.2304203862225468</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.5609574980282335</v>
+        <v>-0.5664082621634108</v>
       </c>
       <c r="AH12" t="n">
-        <v>-1.471873074081434</v>
+        <v>-1.472064901429859</v>
       </c>
       <c r="AI12" t="n">
-        <v>-2.633972622238078</v>
+        <v>-2.63658198850382</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="AN12" t="n">
-        <v>-49684.62557327687</v>
+        <v>-49422.72937450411</v>
       </c>
     </row>
     <row r="13">
@@ -2136,28 +2136,28 @@
         <v>0.02358212802165563</v>
       </c>
       <c r="P13" t="n">
-        <v>226486</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7313329730219251</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.7313329730219251</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2528159097513449</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.2528159097513449</v>
+        <v>-0.5359511562051669</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.5359511562051669</v>
+        <v>0.3956345068478511</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3956345068478511</v>
+        <v>-1.259786525099331</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.259786525099331</v>
+        <v>226361</v>
       </c>
       <c r="X13" t="n">
         <v>-0.266017687231983</v>
@@ -2178,22 +2178,22 @@
         <v>-0.4771060464722076</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.7579338818520853</v>
+        <v>-0.7541017557390541</v>
       </c>
       <c r="AE13" t="n">
         <v>-1.259786525099333</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.3678564571951052</v>
+        <v>-0.3678564571951053</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9615922900889521</v>
+        <v>0.9576426255524877</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1.423974332217378</v>
+        <v>-1.424122904950021</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.146599474071139</v>
+        <v>-1.145074917875176</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="AN13" t="n">
-        <v>-259688.728484476</v>
+        <v>-259200.3034851427</v>
       </c>
     </row>
     <row r="14">
@@ -2268,28 +2268,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P14" t="n">
-        <v>8923</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7167536915354292</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.7167536915354292</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2973779099880545</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.2973779099880545</v>
+        <v>-1.791660419446391</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.791660419446391</v>
+        <v>-1.434298865284212</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.434298865284212</v>
+        <v>-0.2175602778230416</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.2175602778230416</v>
+        <v>8035</v>
       </c>
       <c r="X14" t="n">
         <v>-0.5229501945721152</v>
@@ -2310,7 +2310,7 @@
         <v>-0.8697539553822764</v>
       </c>
       <c r="AD14" t="n">
-        <v>-2.276014110743311</v>
+        <v>-2.277127148688311</v>
       </c>
       <c r="AE14" t="n">
         <v>-0.2175602778230434</v>
@@ -2319,13 +2319,13 @@
         <v>-3.978346367253919</v>
       </c>
       <c r="AG14" t="n">
-        <v>-2.712788735974833</v>
+        <v>-2.709727613144689</v>
       </c>
       <c r="AH14" t="n">
-        <v>-1.452309684099472</v>
+        <v>-1.452503664281671</v>
       </c>
       <c r="AI14" t="n">
-        <v>-5.031596478063403</v>
+        <v>-5.03237380083246</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="AN14" t="n">
-        <v>-44896.93537375975</v>
+        <v>-40435.12348968881</v>
       </c>
     </row>
     <row r="15">
@@ -2400,28 +2400,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P15" t="n">
-        <v>19930</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6001194396434619</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.6001194396434619</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2255835762733557</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.2255835762733557</v>
+        <v>-0.9771534016539867</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.9771534016539867</v>
+        <v>0.2292769275631181</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2292769275631181</v>
+        <v>-0.4662132403711933</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.4662132403711933</v>
+        <v>18697</v>
       </c>
       <c r="X15" t="n">
         <v>-0.1615862038557021</v>
@@ -2442,7 +2442,7 @@
         <v>-0.3718624092310597</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.2092234458934274</v>
+        <v>-0.2101108196689535</v>
       </c>
       <c r="AE15" t="n">
         <v>-0.4662132403711952</v>
@@ -2451,13 +2451,13 @@
         <v>-1.145640713785925</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.5519655271794194</v>
+        <v>-0.5471934591951151</v>
       </c>
       <c r="AH15" t="n">
-        <v>-1.353566783182244</v>
+        <v>-1.353768625989515</v>
       </c>
       <c r="AI15" t="n">
-        <v>-1.692288973062916</v>
+        <v>-1.690771571682856</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="AN15" t="n">
-        <v>-33727.31923314391</v>
+        <v>-31612.35607575435</v>
       </c>
     </row>
     <row r="16">
@@ -2532,28 +2532,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P16" t="n">
-        <v>33114</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7896500989679087</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.7896500989679087</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.2577672431109793</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.2577672431109793</v>
+        <v>-1.304230107202516</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.304230107202516</v>
+        <v>0.728349665417317</v>
       </c>
       <c r="V16" t="n">
-        <v>0.728349665417317</v>
+        <v>-2.291431795245908</v>
       </c>
       <c r="W16" t="n">
-        <v>-2.291431795245908</v>
+        <v>33014</v>
       </c>
       <c r="X16" t="n">
         <v>-0.3113297299399682</v>
@@ -2574,7 +2574,7 @@
         <v>-0.8658520361987392</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.002226210738914</v>
+        <v>-1.002820026188003</v>
       </c>
       <c r="AE16" t="n">
         <v>-2.29143179524591</v>
@@ -2583,13 +2583,13 @@
         <v>-1.3821419294499</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3971760048304489</v>
+        <v>0.3939080926825836</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.469517284963775</v>
+        <v>-1.469711248702143</v>
       </c>
       <c r="AI16" t="n">
-        <v>-2.185219644477246</v>
+        <v>-2.186626696102791</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>-72361.36330721952</v>
+        <v>-72189.29374513755</v>
       </c>
     </row>
     <row r="17">
@@ -2664,28 +2664,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P17" t="n">
-        <v>57961</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.6001194396434619</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.6001194396434619</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.2019426058941365</v>
+        <v>-0.0597139087256035</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0597139087256035</v>
+        <v>-0.9165447288530847</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.9165447288530847</v>
+        <v>0.8115284550596835</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8115284550596835</v>
+        <v>-0.7598353557206011</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.7598353557206011</v>
+        <v>58555</v>
       </c>
       <c r="X17" t="n">
         <v>-0.2622994577426387</v>
@@ -2706,22 +2706,22 @@
         <v>-0.4281419577509583</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.6822664623321233</v>
+        <v>-0.682851979897501</v>
       </c>
       <c r="AE17" t="n">
         <v>-0.7598353557206029</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.5139938374212818</v>
+        <v>-0.513993837421282</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.7926275285589135</v>
+        <v>-0.7953728471622226</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.8942482115078092</v>
+        <v>-0.8941659891336116</v>
       </c>
       <c r="AI17" t="n">
-        <v>-1.550815993511013</v>
+        <v>-1.552481801069483</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="AN17" t="n">
-        <v>-89886.84579989182</v>
+        <v>-90905.57186162355</v>
       </c>
     </row>
     <row r="18">
@@ -2796,28 +2796,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P18" t="n">
-        <v>12427</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6875951285624373</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.6875951285624373</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.3468912435843984</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.3468912435843984</v>
+        <v>-1.925091430423024</v>
       </c>
       <c r="U18" t="n">
-        <v>-1.925091430423024</v>
+        <v>0.06291934827838513</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06291934827838513</v>
+        <v>-0.9264857455135123</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.9264857455135123</v>
+        <v>11853</v>
       </c>
       <c r="X18" t="n">
         <v>-0.3494541746651063</v>
@@ -2838,22 +2838,22 @@
         <v>-0.9145584309961162</v>
       </c>
       <c r="AD18" t="n">
-        <v>-3.141305268639012</v>
+        <v>-3.143377929035252</v>
       </c>
       <c r="AE18" t="n">
         <v>-0.926485745513514</v>
       </c>
       <c r="AF18" t="n">
-        <v>-2.938871898025773</v>
+        <v>-2.938871898025774</v>
       </c>
       <c r="AG18" t="n">
-        <v>-1.988564222000568</v>
+        <v>-1.988923290871285</v>
       </c>
       <c r="AH18" t="n">
-        <v>-1.443619871610333</v>
+        <v>-1.443737441162768</v>
       </c>
       <c r="AI18" t="n">
-        <v>-4.810982295011397</v>
+        <v>-4.812933630237848</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="AN18" t="n">
-        <v>-59786.07698010663</v>
+        <v>-57047.70231920921</v>
       </c>
     </row>
     <row r="19">
@@ -2928,28 +2928,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P19" t="n">
-        <v>10373</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.745912254508421</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.745912254508421</v>
+        <v>-0.8391381582991885</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.8391381582991885</v>
+        <v>-0.3865019104614736</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.3865019104614736</v>
+        <v>-1.886940142343583</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.886940142343583</v>
+        <v>-3.513768606343374</v>
       </c>
       <c r="V19" t="n">
-        <v>-3.513768606343374</v>
+        <v>-0.6328636301641014</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.6328636301641014</v>
+        <v>10059</v>
       </c>
       <c r="X19" t="n">
         <v>-1.043003210099068</v>
@@ -2970,7 +2970,7 @@
         <v>-1.09151892504373</v>
       </c>
       <c r="AD19" t="n">
-        <v>-4.751178228913782</v>
+        <v>-4.751275840551782</v>
       </c>
       <c r="AE19" t="n">
         <v>-0.6328636301641032</v>
@@ -2979,13 +2979,13 @@
         <v>-3.689814515486654</v>
       </c>
       <c r="AG19" t="n">
-        <v>-3.131886128794712</v>
+        <v>-3.130675355374986</v>
       </c>
       <c r="AH19" t="n">
-        <v>-1.491936126348193</v>
+        <v>-1.4920380750911</v>
       </c>
       <c r="AI19" t="n">
-        <v>-6.473732815547596</v>
+        <v>-6.474384782292505</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="AN19" t="n">
-        <v>-67152.03049567521</v>
+        <v>-65125.83652508031</v>
       </c>
     </row>
     <row r="20">
@@ -3060,28 +3060,28 @@
         <v>-0.05299222482772899</v>
       </c>
       <c r="P20" t="n">
-        <v>19202</v>
+        <v>0.8818226146913047</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8818226146913047</v>
+        <v>0.8140708645466403</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8140708645466403</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.7696344290131577</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7696344290131577</v>
+        <v>-1.096269471492379</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.096269471492379</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.7688685481452797</v>
+        <v>-0.4238893318523581</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.4238893318523581</v>
+        <v>19067</v>
       </c>
       <c r="X20" t="n">
         <v>-0.09306277723508956</v>
@@ -3102,7 +3102,7 @@
         <v>-0.1537688223351728</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.1642605683631762</v>
+        <v>-0.1651070444556772</v>
       </c>
       <c r="AE20" t="n">
         <v>-0.4238893318523599</v>
@@ -3111,13 +3111,13 @@
         <v>-1.246095988815944</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.5368588260669301</v>
+        <v>-0.5346723871087935</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.203072577999686</v>
+        <v>1.202828045074646</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.3109729805821978</v>
+        <v>-0.3120574809647557</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="AN20" t="n">
-        <v>-5971.303173139362</v>
+        <v>-5949.999989554997</v>
       </c>
     </row>
     <row r="21">
@@ -3192,28 +3192,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P21" t="n">
-        <v>12500</v>
+        <v>1.509824452337417</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.509824452337417</v>
+        <v>1.499297094411948</v>
       </c>
       <c r="R21" t="n">
-        <v>1.499297094411948</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S21" t="n">
-        <v>1.072448498915967</v>
+        <v>1.462821099361973</v>
       </c>
       <c r="T21" t="n">
-        <v>1.462821099361973</v>
+        <v>-1.011036473338998</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.011036473338998</v>
+        <v>-1.351120075641845</v>
       </c>
       <c r="V21" t="n">
-        <v>-1.351120075641845</v>
+        <v>-2.352272413741731</v>
       </c>
       <c r="W21" t="n">
-        <v>-2.352272413741731</v>
+        <v>12829</v>
       </c>
       <c r="X21" t="n">
         <v>-0.02714802792872502</v>
@@ -3234,22 +3234,22 @@
         <v>-0.5407537471248892</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.01419387731656685</v>
+        <v>-0.01548496662866972</v>
       </c>
       <c r="AE21" t="n">
         <v>-2.352272413741733</v>
       </c>
       <c r="AF21" t="n">
-        <v>-1.591641644110522</v>
+        <v>-1.591641644110521</v>
       </c>
       <c r="AG21" t="n">
-        <v>-1.398038501654982</v>
+        <v>-1.39712238686977</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.724586041951593</v>
+        <v>2.724193443193965</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.2559439579757639</v>
+        <v>-0.2601561048921868</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="AN21" t="n">
-        <v>-3199.299474697048</v>
+        <v>-3337.542669661864</v>
       </c>
     </row>
     <row r="22">
@@ -3324,28 +3324,28 @@
         <v>-0.2508461114129494</v>
       </c>
       <c r="P22" t="n">
-        <v>26032</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.091156560573342</v>
+        <v>0.9890222423845912</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9890222423845912</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S22" t="n">
-        <v>1.072448498915967</v>
+        <v>0.6780347618599214</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6780347618599214</v>
+        <v>-1.823770539706023</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.823770539706023</v>
+        <v>-1.184762496357112</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.184762496357112</v>
+        <v>-0.7386734014611865</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.7386734014611865</v>
+        <v>23568</v>
       </c>
       <c r="X22" t="n">
         <v>-0.9104833571149712</v>
@@ -3366,7 +3366,7 @@
         <v>-0.6636363571010941</v>
       </c>
       <c r="AD22" t="n">
-        <v>-2.206182526657757</v>
+        <v>-2.205772821130145</v>
       </c>
       <c r="AE22" t="n">
         <v>-0.7386734014611883</v>
@@ -3375,13 +3375,13 @@
         <v>-2.665077224947391</v>
       </c>
       <c r="AG22" t="n">
-        <v>-1.902943127021251</v>
+        <v>-1.911180727466645</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.801165443997</v>
+        <v>1.800788299115055</v>
       </c>
       <c r="AI22" t="n">
-        <v>-2.357428586547729</v>
+        <v>-2.363551522246242</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="AN22" t="n">
-        <v>-61368.58096501049</v>
+        <v>-55704.18227629942</v>
       </c>
     </row>
     <row r="23">
@@ -3456,28 +3456,28 @@
         <v>0.3659193667443764</v>
       </c>
       <c r="P23" t="n">
-        <v>46718</v>
+        <v>1.405157479396398</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.405157479396398</v>
+        <v>1.528455657384939</v>
       </c>
       <c r="R23" t="n">
-        <v>1.528455657384939</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S23" t="n">
-        <v>1.709644051321019</v>
+        <v>1.269719098336232</v>
       </c>
       <c r="T23" t="n">
-        <v>1.269719098336232</v>
+        <v>-0.645348825637781</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.645348825637781</v>
+        <v>-1.267941285999479</v>
       </c>
       <c r="V23" t="n">
-        <v>-1.267941285999479</v>
+        <v>-0.4344703089820655</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.4344703089820655</v>
+        <v>48110</v>
       </c>
       <c r="X23" t="n">
         <v>-0.3324671745568797</v>
@@ -3498,22 +3498,22 @@
         <v>-0.1626680214594968</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.8371460438584937</v>
+        <v>-0.8373114937892233</v>
       </c>
       <c r="AE23" t="n">
         <v>-0.4344703089820673</v>
       </c>
       <c r="AF23" t="n">
-        <v>-1.064466820995761</v>
+        <v>-1.06446682099576</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.6142671376678355</v>
+        <v>0.602346762760246</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.805745378228752</v>
+        <v>2.805319093860971</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.7794221053609586</v>
+        <v>0.7727159248491592</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="AN23" t="n">
-        <v>36413.04191825326</v>
+        <v>37175.36314449305</v>
       </c>
     </row>
     <row r="24">
@@ -3588,28 +3588,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P24" t="n">
-        <v>12630</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.091156560573342</v>
+        <v>1.163973620222542</v>
       </c>
       <c r="R24" t="n">
-        <v>1.163973620222542</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S24" t="n">
-        <v>1.072448498915967</v>
+        <v>0.9256014298416412</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9256014298416412</v>
+        <v>-1.694279420785786</v>
       </c>
       <c r="U24" t="n">
-        <v>-1.694279420785786</v>
+        <v>-3.097874658131532</v>
       </c>
       <c r="V24" t="n">
-        <v>-3.097874658131532</v>
+        <v>-1.302110433618164</v>
       </c>
       <c r="W24" t="n">
-        <v>-1.302110433618164</v>
+        <v>13351</v>
       </c>
       <c r="X24" t="n">
         <v>-0.7797240356759566</v>
@@ -3630,7 +3630,7 @@
         <v>-0.8403570026006963</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.967081461403196</v>
+        <v>-1.967026279342321</v>
       </c>
       <c r="AE24" t="n">
         <v>-1.302110433618165</v>
@@ -3639,13 +3639,13 @@
         <v>-3.843851804598094</v>
       </c>
       <c r="AG24" t="n">
-        <v>-2.789190067816999</v>
+        <v>-2.788598872970322</v>
       </c>
       <c r="AH24" t="n">
-        <v>2.067798177941348</v>
+        <v>2.067571934907179</v>
       </c>
       <c r="AI24" t="n">
-        <v>-3.10620586997657</v>
+        <v>-3.109961634050297</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="AN24" t="n">
-        <v>-39231.38013780408</v>
+        <v>-41521.09777620551</v>
       </c>
     </row>
     <row r="25">
@@ -3720,28 +3720,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P25" t="n">
-        <v>26797</v>
+        <v>1.30049050645538</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.30049050645538</v>
+        <v>1.630510627790411</v>
       </c>
       <c r="R25" t="n">
-        <v>1.630510627790411</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S25" t="n">
-        <v>1.709644051321019</v>
+        <v>1.443015765923436</v>
       </c>
       <c r="T25" t="n">
-        <v>1.443015765923436</v>
+        <v>-1.002631370285352</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.002631370285352</v>
+        <v>-2.848338289204442</v>
       </c>
       <c r="V25" t="n">
-        <v>-2.848338289204442</v>
+        <v>-2.13271713830028</v>
       </c>
       <c r="W25" t="n">
-        <v>-2.13271713830028</v>
+        <v>26395</v>
       </c>
       <c r="X25" t="n">
         <v>-0.1679010590628916</v>
@@ -3762,22 +3762,22 @@
         <v>-0.615683173923721</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.5763141924536567</v>
+        <v>-0.5774254974017611</v>
       </c>
       <c r="AE25" t="n">
         <v>-2.132717138300282</v>
       </c>
       <c r="AF25" t="n">
-        <v>-2.249516139492789</v>
+        <v>-2.249516139492788</v>
       </c>
       <c r="AG25" t="n">
-        <v>-1.007929825342611</v>
+        <v>-1.00841338673597</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.914388995385655</v>
+        <v>2.914032762927262</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.5513624734508009</v>
+        <v>-0.5557781271621722</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="AN25" t="n">
-        <v>-14774.86020106111</v>
+        <v>-14669.76366644554</v>
       </c>
     </row>
     <row r="26">
@@ -3852,28 +3852,28 @@
         <v>0.1050799223185304</v>
       </c>
       <c r="P26" t="n">
-        <v>16159</v>
+        <v>1.30049050645538</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.30049050645538</v>
+        <v>1.105656494276558</v>
       </c>
       <c r="R26" t="n">
-        <v>1.105656494276558</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4352529465109155</v>
+        <v>1.039482097113232</v>
       </c>
       <c r="T26" t="n">
-        <v>1.039482097113232</v>
+        <v>-1.345270649456648</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.345270649456648</v>
+        <v>-0.1034382310063478</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.1034382310063478</v>
+        <v>-0.624927897316821</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.624927897316821</v>
+        <v>15920</v>
       </c>
       <c r="X26" t="n">
         <v>0.06556413770680225</v>
@@ -3894,22 +3894,22 @@
         <v>-0.1778363333950523</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.3966011838103734</v>
+        <v>-0.3983553029921967</v>
       </c>
       <c r="AE26" t="n">
         <v>-0.6249278973168227</v>
       </c>
       <c r="AF26" t="n">
-        <v>-2.041321214393347</v>
+        <v>-2.041321214393348</v>
       </c>
       <c r="AG26" t="n">
-        <v>-1.370566479462493</v>
+        <v>-1.367592401350982</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.083208281304089</v>
+        <v>2.083385885053683</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.7134388966029819</v>
+        <v>-0.7157271101750944</v>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="AN26" t="n">
-        <v>-11528.45913020758</v>
+        <v>-11394.3755939875</v>
       </c>
     </row>
     <row r="27">
@@ -3984,28 +3984,28 @@
         <v>-0.3697690184974772</v>
       </c>
       <c r="P27" t="n">
-        <v>36263</v>
+        <v>1.509824452337417</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.509824452337417</v>
+        <v>1.411821405492972</v>
       </c>
       <c r="R27" t="n">
-        <v>1.411821405492972</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S27" t="n">
-        <v>1.072448498915967</v>
+        <v>1.514810099638134</v>
       </c>
       <c r="T27" t="n">
-        <v>1.514810099638134</v>
+        <v>0.1291682877821967</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1291682877821967</v>
+        <v>-0.02025944136398134</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.02025944136398134</v>
+        <v>-0.6937042486599244</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.6937042486599244</v>
+        <v>37061</v>
       </c>
       <c r="X27" t="n">
         <v>0.07515243004497335</v>
@@ -4026,22 +4026,22 @@
         <v>0.0573620667068121</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.6071926214740941</v>
+        <v>0.6064765529568843</v>
       </c>
       <c r="AE27" t="n">
         <v>-0.6937042486599262</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.04686051935786621</v>
+        <v>-0.0468605193578663</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6304602043832034</v>
+        <v>0.6280551015588194</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.694814264095261</v>
+        <v>2.69437772401139</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.916893487696355</v>
+        <v>1.913743975455683</v>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="AN27" t="n">
-        <v>69512.30854433292</v>
+        <v>70925.26547436308</v>
       </c>
     </row>
     <row r="28">
@@ -4116,28 +4116,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P28" t="n">
-        <v>19901</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.195823533514361</v>
+        <v>0.9890222423845912</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9890222423845912</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S28" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7275480954562653</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7275480954562653</v>
+        <v>-1.845636940619025</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.845636940619025</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.683835234211311</v>
+        <v>-0.5693777673858516</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.5693777673858516</v>
+        <v>19913</v>
       </c>
       <c r="X28" t="n">
         <v>-0.7646429334628652</v>
@@ -4158,7 +4158,7 @@
         <v>-0.6383834279899701</v>
       </c>
       <c r="AD28" t="n">
-        <v>-1.658443688210566</v>
+        <v>-1.658383754124941</v>
       </c>
       <c r="AE28" t="n">
         <v>-0.5693777673858533</v>
@@ -4167,13 +4167,13 @@
         <v>-3.232440670827947</v>
       </c>
       <c r="AG28" t="n">
-        <v>-2.473357213019078</v>
+        <v>-2.475361975693478</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.94475581049359</v>
+        <v>1.944603165167869</v>
       </c>
       <c r="AI28" t="n">
-        <v>-2.468626669813245</v>
+        <v>-2.472868190958158</v>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>-49128.1393559534</v>
+        <v>-49242.2242865498</v>
       </c>
     </row>
     <row r="29">
@@ -4248,28 +4248,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P29" t="n">
-        <v>10218</v>
+        <v>0.7771556417502861</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7771556417502861</v>
+        <v>0.6974366126546732</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6974366126546732</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.5220677610314379</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5220677610314379</v>
+        <v>-1.440813031824268</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.440813031824268</v>
+        <v>-1.018404917072379</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.018404917072379</v>
+        <v>-0.8259664627812808</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.8259664627812808</v>
+        <v>9123</v>
       </c>
       <c r="X29" t="n">
         <v>0.01616672451131721</v>
@@ -4290,22 +4290,22 @@
         <v>-0.333468940228703</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.004456557742183342</v>
+        <v>0.003021680599174514</v>
       </c>
       <c r="AE29" t="n">
         <v>-0.8259664627812826</v>
       </c>
       <c r="AF29" t="n">
-        <v>-1.12082484579971</v>
+        <v>-1.120824845799709</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.7939912007977368</v>
+        <v>-0.7944037855869688</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.9262927965312622</v>
+        <v>0.9259611320813068</v>
       </c>
       <c r="AI29" t="n">
-        <v>-0.4916024778152611</v>
+        <v>-0.4943404042274119</v>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="AN29" t="n">
-        <v>-5023.194118316338</v>
+        <v>-4509.867507766679</v>
       </c>
     </row>
     <row r="30">
@@ -4380,28 +4380,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P30" t="n">
-        <v>6614</v>
+        <v>0.5678216958682486</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5678216958682486</v>
+        <v>0.6099609237356978</v>
       </c>
       <c r="R30" t="n">
-        <v>0.6099609237356978</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.5393974277901583</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5393974277901583</v>
+        <v>-1.267063792137175</v>
       </c>
       <c r="U30" t="n">
-        <v>-1.267063792137175</v>
+        <v>0.3124557172054846</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3124557172054846</v>
+        <v>-1.114298089565838</v>
       </c>
       <c r="W30" t="n">
-        <v>-1.114298089565838</v>
+        <v>5946</v>
       </c>
       <c r="X30" t="n">
         <v>0.3635153991536226</v>
@@ -4422,22 +4422,22 @@
         <v>-0.3758906731628794</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.3014231863849656</v>
+        <v>-0.3041413404393749</v>
       </c>
       <c r="AE30" t="n">
         <v>-1.11429808956584</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.6611712509398937</v>
+        <v>-0.6611712509398934</v>
       </c>
       <c r="AG30" t="n">
-        <v>-2.624094176953482</v>
+        <v>-2.623823222956725</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.7638483071748833</v>
+        <v>0.763479460307616</v>
       </c>
       <c r="AI30" t="n">
-        <v>-1.357214497885962</v>
+        <v>-1.361542395813515</v>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="AN30" t="n">
-        <v>-8976.616689017754</v>
+        <v>-8095.731085507162</v>
       </c>
     </row>
     <row r="31">
@@ -4512,28 +4512,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P31" t="n">
-        <v>12150</v>
+        <v>0.4631547229272299</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4631547229272299</v>
+        <v>0.6828573311681773</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6828573311681773</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.9379797632407272</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9379797632407272</v>
+        <v>-0.7271015858080117</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.7271015858080117</v>
+        <v>-1.018404917072379</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.018404917072379</v>
+        <v>0.5892392283172305</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5892392283172305</v>
+        <v>12269</v>
       </c>
       <c r="X31" t="n">
         <v>-0.02861443375031303</v>
@@ -4554,7 +4554,7 @@
         <v>0.06395545351314026</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.5166685241054295</v>
+        <v>0.5159095619299273</v>
       </c>
       <c r="AE31" t="n">
         <v>0.5892392283172287</v>
@@ -4563,13 +4563,13 @@
         <v>-1.140641535781481</v>
       </c>
       <c r="AG31" t="n">
-        <v>-0.3318587635836584</v>
+        <v>-0.3250822261809309</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.955966631390092</v>
+        <v>0.955579576328604</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.2204964411605996</v>
+        <v>0.2217997592760771</v>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="AN31" t="n">
-        <v>2679.031760101286</v>
+        <v>2721.261246558191</v>
       </c>
     </row>
     <row r="32">
@@ -4644,28 +4644,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P32" t="n">
-        <v>7517</v>
+        <v>1.30049050645538</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.30049050645538</v>
+        <v>1.45555924995246</v>
       </c>
       <c r="R32" t="n">
-        <v>1.45555924995246</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S32" t="n">
-        <v>1.709644051321019</v>
+        <v>1.128606097586651</v>
       </c>
       <c r="T32" t="n">
-        <v>1.128606097586651</v>
+        <v>-1.596701427522362</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.596701427522362</v>
+        <v>-3.680126185628097</v>
       </c>
       <c r="V32" t="n">
-        <v>-3.680126185628097</v>
+        <v>0.4649127470431577</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4649127470431577</v>
+        <v>7293</v>
       </c>
       <c r="X32" t="n">
         <v>-0.5095583439785009</v>
@@ -4686,22 +4686,22 @@
         <v>-0.1203690630290855</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.6193998791535481</v>
+        <v>-0.6196335790819791</v>
       </c>
       <c r="AE32" t="n">
         <v>0.4649127470431558</v>
       </c>
       <c r="AF32" t="n">
-        <v>-2.413557390930594</v>
+        <v>-2.413557390930592</v>
       </c>
       <c r="AG32" t="n">
-        <v>-1.015020158038285</v>
+        <v>-1.01019373674092</v>
       </c>
       <c r="AH32" t="n">
-        <v>2.637392001015985</v>
+        <v>2.636983421904561</v>
       </c>
       <c r="AI32" t="n">
-        <v>-0.3675727769115076</v>
+        <v>-0.3682974331319315</v>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="AN32" t="n">
-        <v>-2763.044564043802</v>
+        <v>-2685.993179831177</v>
       </c>
     </row>
     <row r="33">
@@ -4776,28 +4776,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P33" t="n">
-        <v>14106</v>
+        <v>1.405157479396398</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.405157479396398</v>
+        <v>1.324345716573997</v>
       </c>
       <c r="R33" t="n">
-        <v>1.324345716573997</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S33" t="n">
-        <v>1.072448498915967</v>
+        <v>1.247438098217877</v>
       </c>
       <c r="T33" t="n">
-        <v>1.247438098217877</v>
+        <v>-1.113933320878558</v>
       </c>
       <c r="U33" t="n">
-        <v>-1.113933320878558</v>
+        <v>-1.018404917072379</v>
       </c>
       <c r="V33" t="n">
-        <v>-1.018404917072379</v>
+        <v>-0.5138276374548821</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.5138276374548821</v>
+        <v>14044</v>
       </c>
       <c r="X33" t="n">
         <v>-0.5251918444319372</v>
@@ -4818,7 +4818,7 @@
         <v>-0.3338756085428262</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.6768801082599625</v>
+        <v>-0.6767847431274545</v>
       </c>
       <c r="AE33" t="n">
         <v>-0.5138276374548839</v>
@@ -4827,13 +4827,13 @@
         <v>-2.573581565186398</v>
       </c>
       <c r="AG33" t="n">
-        <v>-0.843629603705913</v>
+        <v>-0.8431013927060547</v>
       </c>
       <c r="AH33" t="n">
-        <v>2.522272239424702</v>
+        <v>2.522127671699772</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.626097834972881</v>
+        <v>-0.6284843465686814</v>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="AN33" t="n">
-        <v>-8831.736060127459</v>
+        <v>-8826.434163210561</v>
       </c>
     </row>
     <row r="34">
@@ -4908,28 +4908,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P34" t="n">
-        <v>14581</v>
+        <v>1.614491425278436</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.614491425278436</v>
+        <v>1.543034938871436</v>
       </c>
       <c r="R34" t="n">
-        <v>1.543034938871436</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S34" t="n">
-        <v>1.072448498915967</v>
+        <v>1.52718843303722</v>
       </c>
       <c r="T34" t="n">
-        <v>1.52718843303722</v>
+        <v>-0.5766633741212658</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.5766633741212658</v>
+        <v>-0.6856897585029132</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.6856897585029132</v>
+        <v>0.02844744044268028</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02844744044268028</v>
+        <v>15288</v>
       </c>
       <c r="X34" t="n">
         <v>-0.02284453157757018</v>
@@ -4950,22 +4950,22 @@
         <v>0.08758660511889949</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.08435132686347291</v>
+        <v>-0.08549937314525075</v>
       </c>
       <c r="AE34" t="n">
         <v>0.02844744044267846</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.8208014508159056</v>
+        <v>-0.8208014508159054</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.9633692222091408</v>
+        <v>-0.9578938568155184</v>
       </c>
       <c r="AH34" t="n">
-        <v>2.831734380232143</v>
+        <v>2.831308327602465</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.7085365482784537</v>
+        <v>0.7075448892974587</v>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="AN34" t="n">
-        <v>10331.17141044813</v>
+        <v>10816.94626757955</v>
       </c>
     </row>
     <row r="35">
@@ -5040,28 +5040,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P35" t="n">
-        <v>35589</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.195823533514361</v>
+        <v>1.484717812925452</v>
       </c>
       <c r="R35" t="n">
-        <v>1.484717812925452</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S35" t="n">
-        <v>1.709644051321019</v>
+        <v>1.074141430630673</v>
       </c>
       <c r="T35" t="n">
-        <v>1.074141430630673</v>
+        <v>-1.480999930799513</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.480999930799513</v>
+        <v>-1.850192813496044</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.850192813496044</v>
+        <v>-0.7598353557206011</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.7598353557206011</v>
+        <v>34978</v>
       </c>
       <c r="X35" t="n">
         <v>-0.313587252229176</v>
@@ -5082,7 +5082,7 @@
         <v>-0.5782001297049055</v>
       </c>
       <c r="AD35" t="n">
-        <v>-1.214345160189155</v>
+        <v>-1.215544822361308</v>
       </c>
       <c r="AE35" t="n">
         <v>-0.7598353557206029</v>
@@ -5091,13 +5091,13 @@
         <v>-3.072924068545373</v>
       </c>
       <c r="AG35" t="n">
-        <v>-2.380324241805788</v>
+        <v>-2.385319986670563</v>
       </c>
       <c r="AH35" t="n">
-        <v>2.567991837344218</v>
+        <v>2.56759270229054</v>
       </c>
       <c r="AI35" t="n">
-        <v>-1.813557398882977</v>
+        <v>-1.820324927389615</v>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="AN35" t="n">
-        <v>-64542.69426884626</v>
+        <v>-63671.32531023395</v>
       </c>
     </row>
     <row r="36">
@@ -5172,28 +5172,28 @@
         <v>0.02541565294741851</v>
       </c>
       <c r="P36" t="n">
-        <v>17666</v>
+        <v>1.509824452337417</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.509824452337417</v>
+        <v>1.309766435087501</v>
       </c>
       <c r="R36" t="n">
-        <v>1.309766435087501</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S36" t="n">
-        <v>0.4352529465109155</v>
+        <v>1.388551098967457</v>
       </c>
       <c r="T36" t="n">
-        <v>1.388551098967457</v>
+        <v>-0.2577291121559557</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.2577291121559557</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.1866170206487143</v>
+        <v>0.1130952574803477</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1130952574803477</v>
+        <v>17589</v>
       </c>
       <c r="X36" t="n">
         <v>0.2204257773587286</v>
@@ -5214,22 +5214,22 @@
         <v>0.316583656304214</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.022447899280394</v>
+        <v>1.021260584643161</v>
       </c>
       <c r="AE36" t="n">
         <v>0.1130952574803459</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.07648281561952319</v>
+        <v>0.07648281561952351</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.1021578288742424</v>
+        <v>0.1074688753306126</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.341547027086397</v>
+        <v>2.341134681141398</v>
       </c>
       <c r="AI36" t="n">
-        <v>1.911225763117758</v>
+        <v>1.911122675347929</v>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="AN36" t="n">
-        <v>33763.71433123831</v>
+        <v>33614.73673669473</v>
       </c>
     </row>
     <row r="37">
@@ -5304,28 +5304,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P37" t="n">
-        <v>10941</v>
+        <v>0.6724886688092673</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6724886688092673</v>
+        <v>0.9744429608980953</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9744429608980953</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.2019426058941365</v>
+        <v>1.034530763753598</v>
       </c>
       <c r="T37" t="n">
-        <v>1.034530763753598</v>
+        <v>-1.066260626996158</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.066260626996158</v>
+        <v>-0.1034382310063478</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.1034382310063478</v>
+        <v>-1.693606587417379</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.693606587417379</v>
+        <v>11365</v>
       </c>
       <c r="X37" t="n">
         <v>-0.1990392656371741</v>
@@ -5346,7 +5346,7 @@
         <v>-0.4210923088097933</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.05836480393018861</v>
+        <v>0.05810338176667534</v>
       </c>
       <c r="AE37" t="n">
         <v>-1.693606587417381</v>
@@ -5355,13 +5355,13 @@
         <v>-1.280434712058551</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.2601117673928449</v>
+        <v>0.2636345211792523</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.278151031131631</v>
+        <v>1.277761924013853</v>
       </c>
       <c r="AI37" t="n">
-        <v>-0.04188608380505443</v>
+        <v>-0.0421057055728643</v>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="AN37" t="n">
-        <v>-458.2756429111005</v>
+        <v>-478.5313438356028</v>
       </c>
     </row>
     <row r="38">
@@ -5436,28 +5436,28 @@
         <v>-0.3687922060916122</v>
       </c>
       <c r="P38" t="n">
-        <v>35098</v>
+        <v>1.405157479396398</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.405157479396398</v>
+        <v>1.630510627790411</v>
       </c>
       <c r="R38" t="n">
-        <v>1.630510627790411</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S38" t="n">
-        <v>1.709644051321019</v>
+        <v>1.472723766081242</v>
       </c>
       <c r="T38" t="n">
-        <v>1.472723766081242</v>
+        <v>-0.2964713840438563</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.2964713840438563</v>
+        <v>-1.850192813496044</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.850192813496044</v>
+        <v>-0.5085371488900255</v>
       </c>
       <c r="W38" t="n">
-        <v>-0.5085371488900255</v>
+        <v>35403</v>
       </c>
       <c r="X38" t="n">
         <v>-0.2022014451700432</v>
@@ -5478,7 +5478,7 @@
         <v>-0.07657797161961186</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.4561754129644692</v>
+        <v>-0.4563804834134765</v>
       </c>
       <c r="AE38" t="n">
         <v>-0.5085371488900273</v>
@@ -5487,13 +5487,13 @@
         <v>-1.526323003635138</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.5740313965090844</v>
+        <v>0.5755404132247435</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.002843471496615</v>
+        <v>3.002542567885166</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.8436325346817742</v>
+        <v>0.8423450515842186</v>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="AN38" t="n">
-        <v>29609.81470226091</v>
+        <v>29821.54186123609</v>
       </c>
     </row>
     <row r="39">
@@ -5568,28 +5568,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P39" t="n">
-        <v>26010</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.061918649817071</v>
       </c>
       <c r="R39" t="n">
-        <v>1.061918649817071</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S39" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7473534288948029</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7473534288948029</v>
+        <v>-1.818320355694675</v>
       </c>
       <c r="U39" t="n">
-        <v>-1.818320355694675</v>
+        <v>-2.266086761707867</v>
       </c>
       <c r="V39" t="n">
-        <v>-2.266086761707867</v>
+        <v>-1.217462616580496</v>
       </c>
       <c r="W39" t="n">
-        <v>-1.217462616580496</v>
+        <v>25662</v>
       </c>
       <c r="X39" t="n">
         <v>-0.8675978719674117</v>
@@ -5610,7 +5610,7 @@
         <v>-0.8789160209176108</v>
       </c>
       <c r="AD39" t="n">
-        <v>-2.619616268829657</v>
+        <v>-2.619644859938568</v>
       </c>
       <c r="AE39" t="n">
         <v>-1.217462616580498</v>
@@ -5619,13 +5619,13 @@
         <v>-4.121133697871704</v>
       </c>
       <c r="AG39" t="n">
-        <v>-1.988764593744134</v>
+        <v>-1.993391838049229</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.003738074008862</v>
+        <v>2.004062547002839</v>
       </c>
       <c r="AI39" t="n">
-        <v>-3.258343601850646</v>
+        <v>-3.263284417032849</v>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="AN39" t="n">
-        <v>-84749.51708413531</v>
+        <v>-83742.40470989696</v>
       </c>
     </row>
     <row r="40">
@@ -5700,28 +5700,28 @@
         <v>0.6989446074309184</v>
       </c>
       <c r="P40" t="n">
-        <v>19035</v>
+        <v>0.5678216958682486</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5678216958682486</v>
+        <v>0.8723879904926239</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8723879904926239</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S40" t="n">
-        <v>-0.2019426058941365</v>
+        <v>1.041957763793049</v>
       </c>
       <c r="T40" t="n">
-        <v>1.041957763793049</v>
+        <v>-0.5734457956085418</v>
       </c>
       <c r="U40" t="n">
-        <v>-0.5734457956085418</v>
+        <v>-0.2697958102910808</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.2697958102910808</v>
+        <v>-0.3154343162728462</v>
       </c>
       <c r="W40" t="n">
-        <v>-0.3154343162728462</v>
+        <v>19600</v>
       </c>
       <c r="X40" t="n">
         <v>-0.05901938896591982</v>
@@ -5742,22 +5742,22 @@
         <v>-0.04054930913252462</v>
       </c>
       <c r="AD40" t="n">
-        <v>-0.1315824512370313</v>
+        <v>-0.132514219456708</v>
       </c>
       <c r="AE40" t="n">
         <v>-0.315434316272848</v>
       </c>
       <c r="AF40" t="n">
-        <v>-1.205872154143673</v>
+        <v>-1.205872154143674</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.1886719083011038</v>
+        <v>0.190862215536355</v>
       </c>
       <c r="AH40" t="n">
-        <v>1.171250188713505</v>
+        <v>1.170865115222711</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.03539440652795522</v>
+        <v>0.03478329226722787</v>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="AN40" t="n">
-        <v>673.7325282596277</v>
+        <v>681.7525284376663</v>
       </c>
     </row>
     <row r="41">
@@ -5832,28 +5832,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P41" t="n">
-        <v>13329</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.195823533514361</v>
+        <v>1.149394338736046</v>
       </c>
       <c r="R41" t="n">
-        <v>1.149394338736046</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S41" t="n">
-        <v>1.072448498915967</v>
+        <v>0.8884664296443832</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8884664296443832</v>
+        <v>-1.432145269300195</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.432145269300195</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V41" t="n">
-        <v>-1.683835234211311</v>
+        <v>0.1025142803506404</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1025142803506404</v>
+        <v>12973</v>
       </c>
       <c r="X41" t="n">
         <v>-0.3916135638496044</v>
@@ -5874,7 +5874,7 @@
         <v>-0.3320160191390816</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.7239761451228302</v>
+        <v>-0.7247010984526943</v>
       </c>
       <c r="AE41" t="n">
         <v>0.1025142803506386</v>
@@ -5883,13 +5883,13 @@
         <v>-2.765479431596586</v>
       </c>
       <c r="AG41" t="n">
-        <v>-2.318762802090286</v>
+        <v>-2.316813460818428</v>
       </c>
       <c r="AH41" t="n">
-        <v>2.064745083041409</v>
+        <v>2.0643930374081</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1.514717783362483</v>
+        <v>-1.517697113216094</v>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="AN41" t="n">
-        <v>-20189.67333443854</v>
+        <v>-19689.08464975239</v>
       </c>
     </row>
     <row r="42">
@@ -5964,28 +5964,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P42" t="n">
-        <v>22188</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.091156560573342</v>
+        <v>1.426400686979468</v>
       </c>
       <c r="R42" t="n">
-        <v>1.426400686979468</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S42" t="n">
-        <v>1.709644051321019</v>
+        <v>1.13850876430592</v>
       </c>
       <c r="T42" t="n">
-        <v>1.13850876430592</v>
+        <v>-1.168435160992045</v>
       </c>
       <c r="U42" t="n">
-        <v>-1.168435160992045</v>
+        <v>-1.93337160313841</v>
       </c>
       <c r="V42" t="n">
-        <v>-1.93337160313841</v>
+        <v>-0.7069304700720587</v>
       </c>
       <c r="W42" t="n">
-        <v>-0.7069304700720587</v>
+        <v>22244</v>
       </c>
       <c r="X42" t="n">
         <v>-0.3432040072847213</v>
@@ -6006,22 +6006,22 @@
         <v>-0.4315658016884063</v>
       </c>
       <c r="AD42" t="n">
-        <v>-1.136054643780054</v>
+        <v>-1.136631923474475</v>
       </c>
       <c r="AE42" t="n">
         <v>-0.7069304700720604</v>
       </c>
       <c r="AF42" t="n">
-        <v>-2.250026475282066</v>
+        <v>-2.250026475282065</v>
       </c>
       <c r="AG42" t="n">
-        <v>-1.268773347681195</v>
+        <v>-1.272590630831027</v>
       </c>
       <c r="AH42" t="n">
-        <v>2.515504261400654</v>
+        <v>2.515110456696475</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.9356753101002722</v>
+        <v>-0.9405913134503574</v>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="AN42" t="n">
-        <v>-20760.76378050484</v>
+        <v>-20922.51317638975</v>
       </c>
     </row>
     <row r="43">
@@ -6096,28 +6096,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P43" t="n">
-        <v>14806</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.195823533514361</v>
+        <v>1.426400686979468</v>
       </c>
       <c r="R43" t="n">
-        <v>1.426400686979468</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S43" t="n">
-        <v>1.072448498915967</v>
+        <v>0.9454067632801787</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9454067632801787</v>
+        <v>-1.625593969269271</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.625593969269271</v>
+        <v>-2.099729182423144</v>
       </c>
       <c r="V43" t="n">
-        <v>-2.099729182423144</v>
+        <v>0.08135232609122281</v>
       </c>
       <c r="W43" t="n">
-        <v>0.08135232609122281</v>
+        <v>13874</v>
       </c>
       <c r="X43" t="n">
         <v>-0.4023642449287385</v>
@@ -6138,7 +6138,7 @@
         <v>-0.2964480776698297</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.7758212841514028</v>
+        <v>-0.7765358134086305</v>
       </c>
       <c r="AE43" t="n">
         <v>0.08135232609122099</v>
@@ -6147,13 +6147,13 @@
         <v>-3.332325901769751</v>
       </c>
       <c r="AG43" t="n">
-        <v>-1.659415154840835</v>
+        <v>-1.657570659115952</v>
       </c>
       <c r="AH43" t="n">
-        <v>2.457789082400591</v>
+        <v>2.458256921751267</v>
       </c>
       <c r="AI43" t="n">
-        <v>-1.313663732687215</v>
+        <v>-1.316079422021336</v>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="AN43" t="n">
-        <v>-19450.10522616691</v>
+        <v>-18259.28590112401</v>
       </c>
     </row>
     <row r="44">
@@ -6228,28 +6228,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P44" t="n">
-        <v>31145</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.9161258349521116</v>
       </c>
       <c r="R44" t="n">
-        <v>0.9161258349521116</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S44" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7003157619782762</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7003157619782762</v>
+        <v>-1.71785310825656</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.71785310825656</v>
+        <v>-1.434298865284212</v>
       </c>
       <c r="V44" t="n">
-        <v>-1.434298865284212</v>
+        <v>-2.767575766082791</v>
       </c>
       <c r="W44" t="n">
-        <v>-2.767575766082791</v>
+        <v>29791</v>
       </c>
       <c r="X44" t="n">
         <v>-0.4862289756565166</v>
@@ -6270,7 +6270,7 @@
         <v>-0.9415741472347413</v>
       </c>
       <c r="AD44" t="n">
-        <v>-1.276621242494336</v>
+        <v>-1.277121768804596</v>
       </c>
       <c r="AE44" t="n">
         <v>-2.767575766082793</v>
@@ -6279,13 +6279,13 @@
         <v>-2.410324682351172</v>
       </c>
       <c r="AG44" t="n">
-        <v>-1.622702988333357</v>
+        <v>-1.625387722094887</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.718890982704866</v>
+        <v>1.718522070610669</v>
       </c>
       <c r="AI44" t="n">
-        <v>-2.014731837878081</v>
+        <v>-2.019577565348043</v>
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="AN44" t="n">
-        <v>-62748.82309071283</v>
+        <v>-60165.23524928355</v>
       </c>
     </row>
     <row r="45">
@@ -6360,28 +6360,28 @@
         <v>-0.2967055856478614</v>
       </c>
       <c r="P45" t="n">
-        <v>60813</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.9161258349521116</v>
       </c>
       <c r="R45" t="n">
-        <v>0.9161258349521116</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S45" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7176454287369965</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7176454287369965</v>
+        <v>-0.6472531067983727</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.6472531067983727</v>
+        <v>-0.5193321792181802</v>
       </c>
       <c r="V45" t="n">
-        <v>-0.5193321792181802</v>
+        <v>-0.6011206987749735</v>
       </c>
       <c r="W45" t="n">
-        <v>-0.6011206987749735</v>
+        <v>62885</v>
       </c>
       <c r="X45" t="n">
         <v>-0.2088892818522888</v>
@@ -6402,7 +6402,7 @@
         <v>-0.1805198881149976</v>
       </c>
       <c r="AD45" t="n">
-        <v>-0.2369956401630351</v>
+        <v>-0.2375244409701195</v>
       </c>
       <c r="AE45" t="n">
         <v>-0.6011206987749753</v>
@@ -6411,13 +6411,13 @@
         <v>-1.028826031219985</v>
       </c>
       <c r="AG45" t="n">
-        <v>-0.187022958115065</v>
+        <v>-0.187943428167099</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.75806344713344</v>
+        <v>1.757807996422503</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.1728772906551704</v>
+        <v>0.1705695993303231</v>
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="AN45" t="n">
-        <v>10513.18667661288</v>
+        <v>10726.26925388737</v>
       </c>
     </row>
     <row r="46">
@@ -6492,28 +6492,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P46" t="n">
-        <v>15317</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.195823533514361</v>
+        <v>1.470138531438956</v>
       </c>
       <c r="R46" t="n">
-        <v>1.470138531438956</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S46" t="n">
-        <v>1.709644051321019</v>
+        <v>1.210303098020619</v>
       </c>
       <c r="T46" t="n">
-        <v>1.210303098020619</v>
+        <v>-1.054375285959361</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.054375285959361</v>
+        <v>-1.434298865284212</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.434298865284212</v>
+        <v>-1.140750532390109</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.140750532390109</v>
+        <v>16109</v>
       </c>
       <c r="X46" t="n">
         <v>-0.4385362051392481</v>
@@ -6534,7 +6534,7 @@
         <v>-0.4028558311580369</v>
       </c>
       <c r="AD46" t="n">
-        <v>-1.084636980331103</v>
+        <v>-1.084895990175421</v>
       </c>
       <c r="AE46" t="n">
         <v>-1.140750532390111</v>
@@ -6543,13 +6543,13 @@
         <v>-1.462277339674311</v>
       </c>
       <c r="AG46" t="n">
-        <v>-1.642860295537197</v>
+        <v>-1.643631293107794</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.632109223909067</v>
+        <v>2.63170265769152</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.7119143898962148</v>
+        <v>-0.7157143765449654</v>
       </c>
       <c r="AJ46" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="AN46" t="n">
-        <v>-10904.39271004032</v>
+        <v>-11529.44289176285</v>
       </c>
     </row>
     <row r="47">
@@ -6624,28 +6624,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P47" t="n">
-        <v>7403</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.091156560573342</v>
+        <v>1.193132183195534</v>
       </c>
       <c r="R47" t="n">
-        <v>1.193132183195534</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S47" t="n">
-        <v>1.072448498915967</v>
+        <v>0.9379797632407272</v>
       </c>
       <c r="T47" t="n">
-        <v>0.9379797632407272</v>
+        <v>-1.947877139482518</v>
       </c>
       <c r="U47" t="n">
-        <v>-1.947877139482518</v>
+        <v>-1.517477654926578</v>
       </c>
       <c r="V47" t="n">
-        <v>-1.517477654926578</v>
+        <v>-1.926388084270964</v>
       </c>
       <c r="W47" t="n">
-        <v>-1.926388084270964</v>
+        <v>7261</v>
       </c>
       <c r="X47" t="n">
         <v>-0.4573727573149339</v>
@@ -6666,7 +6666,7 @@
         <v>-0.7345696627273172</v>
       </c>
       <c r="AD47" t="n">
-        <v>-0.8650127277393885</v>
+        <v>-0.8656545977373611</v>
       </c>
       <c r="AE47" t="n">
         <v>-1.926388084270966</v>
@@ -6675,13 +6675,13 @@
         <v>-2.543044310552872</v>
       </c>
       <c r="AG47" t="n">
-        <v>-2.364488999097917</v>
+        <v>-2.365717103115466</v>
       </c>
       <c r="AH47" t="n">
-        <v>2.044719781036911</v>
+        <v>2.044321090478939</v>
       </c>
       <c r="AI47" t="n">
-        <v>-1.857105763597549</v>
+        <v>-1.862028309499279</v>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         </is>
       </c>
       <c r="AN47" t="n">
-        <v>-13748.15396791265</v>
+        <v>-13520.18755527426</v>
       </c>
     </row>
     <row r="48">
@@ -6756,28 +6756,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P48" t="n">
-        <v>9877</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.091156560573342</v>
+        <v>1.061918649817071</v>
       </c>
       <c r="R48" t="n">
-        <v>1.061918649817071</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S48" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7646830956535233</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7646830956535233</v>
+        <v>-1.715489173022722</v>
       </c>
       <c r="U48" t="n">
-        <v>-1.715489173022722</v>
+        <v>-2.515623130634976</v>
       </c>
       <c r="V48" t="n">
-        <v>-2.515623130634976</v>
+        <v>0.6606608239427609</v>
       </c>
       <c r="W48" t="n">
-        <v>0.6606608239427609</v>
+        <v>10093</v>
       </c>
       <c r="X48" t="n">
         <v>-0.5022667042283797</v>
@@ -6798,7 +6798,7 @@
         <v>-0.3368617978793096</v>
       </c>
       <c r="AD48" t="n">
-        <v>-1.677084394717652</v>
+        <v>-1.678155600820242</v>
       </c>
       <c r="AE48" t="n">
         <v>0.6606608239427592</v>
@@ -6807,13 +6807,13 @@
         <v>-2.984151186943345</v>
       </c>
       <c r="AG48" t="n">
-        <v>-2.85885048287639</v>
+        <v>-2.857607619383513</v>
       </c>
       <c r="AH48" t="n">
-        <v>1.884888570799974</v>
+        <v>1.884504089839363</v>
       </c>
       <c r="AI48" t="n">
-        <v>-2.353604853040872</v>
+        <v>-2.356975214118373</v>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="AN48" t="n">
-        <v>-23246.55513348469</v>
+        <v>-23788.95083609673</v>
       </c>
     </row>
     <row r="49">
@@ -6876,40 +6876,40 @@
         <v>-1.413273727863431</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3590416254700005</v>
+        <v>0.6072945990847344</v>
       </c>
       <c r="M49" t="n">
         <v>-1.390148505197709</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2102973964894791</v>
+        <v>0.2398465530467936</v>
       </c>
       <c r="O49" t="n">
         <v>-0.7415942621217906</v>
       </c>
       <c r="P49" t="n">
-        <v>21553</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.091156560573342</v>
+        <v>1.295187153601005</v>
       </c>
       <c r="R49" t="n">
-        <v>1.295187153601005</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S49" t="n">
-        <v>1.072448498915967</v>
+        <v>0.885990762964566</v>
       </c>
       <c r="T49" t="n">
-        <v>0.885990762964566</v>
+        <v>-1.570041491274078</v>
       </c>
       <c r="U49" t="n">
-        <v>-1.570041491274078</v>
+        <v>-2.099729182423144</v>
       </c>
       <c r="V49" t="n">
-        <v>-2.099729182423144</v>
+        <v>-1.648637434616117</v>
       </c>
       <c r="W49" t="n">
-        <v>-1.648637434616117</v>
+        <v>20893</v>
       </c>
       <c r="X49" t="n">
         <v>-1.050419726647924</v>
@@ -6930,7 +6930,7 @@
         <v>-0.8035151289191018</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.6146540380582572</v>
+        <v>-0.4852915930671821</v>
       </c>
       <c r="AE49" t="n">
         <v>-1.648637434616119</v>
@@ -6939,13 +6939,13 @@
         <v>-3.101712914421175</v>
       </c>
       <c r="AG49" t="n">
-        <v>-1.180021338003565</v>
+        <v>-1.179821144848251</v>
       </c>
       <c r="AH49" t="n">
-        <v>2.070636338645253</v>
+        <v>2.070237424134763</v>
       </c>
       <c r="AI49" t="n">
-        <v>-1.418249911215954</v>
+        <v>-1.353229280870239</v>
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="AN49" t="n">
-        <v>-30567.54033643745</v>
+        <v>-28273.01936522189</v>
       </c>
     </row>
     <row r="50">
@@ -7020,28 +7020,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P50" t="n">
-        <v>13275</v>
+        <v>1.719158398219454</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.719158398219454</v>
+        <v>1.732565598195882</v>
       </c>
       <c r="R50" t="n">
-        <v>1.732565598195882</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S50" t="n">
-        <v>1.709644051321019</v>
+        <v>1.57175043327393</v>
       </c>
       <c r="T50" t="n">
-        <v>1.57175043327393</v>
+        <v>-1.201595919133383</v>
       </c>
       <c r="U50" t="n">
-        <v>-1.201595919133383</v>
+        <v>-3.014695868489175</v>
       </c>
       <c r="V50" t="n">
-        <v>-3.014695868489175</v>
+        <v>-0.7809973099800217</v>
       </c>
       <c r="W50" t="n">
-        <v>-0.7809973099800217</v>
+        <v>12954</v>
       </c>
       <c r="X50" t="n">
         <v>-0.1787849031594563</v>
@@ -7062,7 +7062,7 @@
         <v>-0.3462490938107805</v>
       </c>
       <c r="AD50" t="n">
-        <v>-0.4823177739867873</v>
+        <v>-0.4834785576892419</v>
       </c>
       <c r="AE50" t="n">
         <v>-0.7809973099800235</v>
@@ -7071,13 +7071,13 @@
         <v>-2.812939645908668</v>
       </c>
       <c r="AG50" t="n">
-        <v>-1.401576625305369</v>
+        <v>-1.39885578711647</v>
       </c>
       <c r="AH50" t="n">
-        <v>3.239283392556963</v>
+        <v>3.238811487570416</v>
       </c>
       <c r="AI50" t="n">
-        <v>-0.5274675814044776</v>
+        <v>-0.5307799608494279</v>
       </c>
       <c r="AJ50" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="AN50" t="n">
-        <v>-7002.13214314444</v>
+        <v>-6875.723612843489</v>
       </c>
     </row>
     <row r="51">
@@ -7152,28 +7152,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P51" t="n">
-        <v>24549</v>
+        <v>1.405157479396398</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.405157479396398</v>
+        <v>1.295187153601005</v>
       </c>
       <c r="R51" t="n">
-        <v>1.295187153601005</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4352529465109155</v>
+        <v>1.247438098217877</v>
       </c>
       <c r="T51" t="n">
-        <v>1.247438098217877</v>
+        <v>-0.9460939192760597</v>
       </c>
       <c r="U51" t="n">
-        <v>-0.9460939192760597</v>
+        <v>-0.9352261274300127</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.9352261274300127</v>
+        <v>0.7823420609344099</v>
       </c>
       <c r="W51" t="n">
-        <v>0.7823420609344099</v>
+        <v>24360</v>
       </c>
       <c r="X51" t="n">
         <v>-0.2128629393433376</v>
@@ -7194,7 +7194,7 @@
         <v>0.0266585586324183</v>
       </c>
       <c r="AD51" t="n">
-        <v>-0.7711585094106969</v>
+        <v>-0.7717675024155419</v>
       </c>
       <c r="AE51" t="n">
         <v>0.7823420609344082</v>
@@ -7203,13 +7203,13 @@
         <v>-1.59495153981571</v>
       </c>
       <c r="AG51" t="n">
-        <v>-1.226633465550966</v>
+        <v>-1.22373810129643</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.23162714543508</v>
+        <v>2.231337235337604</v>
       </c>
       <c r="AI51" t="n">
-        <v>-0.3253093891481933</v>
+        <v>-0.3266048877804095</v>
       </c>
       <c r="AJ51" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="AN51" t="n">
-        <v>-7986.020194198997</v>
+        <v>-7956.095066330776</v>
       </c>
     </row>
     <row r="52">
@@ -7284,28 +7284,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P52" t="n">
-        <v>17231</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.8432294275196321</v>
       </c>
       <c r="R52" t="n">
-        <v>0.8432294275196321</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S52" t="n">
-        <v>1.072448498915967</v>
+        <v>0.623570094903943</v>
       </c>
       <c r="T52" t="n">
-        <v>0.623570094903943</v>
+        <v>-1.698678966915429</v>
       </c>
       <c r="U52" t="n">
-        <v>-1.698678966915429</v>
+        <v>-1.351120075641845</v>
       </c>
       <c r="V52" t="n">
-        <v>-1.351120075641845</v>
+        <v>-0.2625294306243037</v>
       </c>
       <c r="W52" t="n">
-        <v>-0.2625294306243037</v>
+        <v>16701</v>
       </c>
       <c r="X52" t="n">
         <v>-0.3879103813875437</v>
@@ -7326,22 +7326,22 @@
         <v>-0.4393587466477292</v>
       </c>
       <c r="AD52" t="n">
-        <v>-1.019410328180019</v>
+        <v>-1.020282078932675</v>
       </c>
       <c r="AE52" t="n">
         <v>-0.2625294306243055</v>
       </c>
       <c r="AF52" t="n">
-        <v>-3.17670285899337</v>
+        <v>-3.176702858993369</v>
       </c>
       <c r="AG52" t="n">
-        <v>-1.917522268671161</v>
+        <v>-1.91519682731559</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.723306588588779</v>
+        <v>1.723260377985008</v>
       </c>
       <c r="AI52" t="n">
-        <v>-1.937349933073402</v>
+        <v>-1.93970020852468</v>
       </c>
       <c r="AJ52" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         </is>
       </c>
       <c r="AN52" t="n">
-        <v>-33382.47669678779</v>
+        <v>-32394.93318257069</v>
       </c>
     </row>
     <row r="53">
@@ -7416,28 +7416,28 @@
         <v>-0.1454411137155968</v>
       </c>
       <c r="P53" t="n">
-        <v>92987</v>
+        <v>1.509824452337417</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.509824452337417</v>
+        <v>1.338924998060493</v>
       </c>
       <c r="R53" t="n">
-        <v>1.338924998060493</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S53" t="n">
-        <v>1.072448498915967</v>
+        <v>1.353891765450016</v>
       </c>
       <c r="T53" t="n">
-        <v>1.353891765450016</v>
+        <v>-0.2829444213168944</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.2829444213168944</v>
+        <v>-0.02025944136398134</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.02025944136398134</v>
+        <v>-0.3392415148146907</v>
       </c>
       <c r="W53" t="n">
-        <v>-0.3392415148146907</v>
+        <v>95187</v>
       </c>
       <c r="X53" t="n">
         <v>-0.4108004524657282</v>
@@ -7458,22 +7458,22 @@
         <v>0.0501128736907878</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.2489258476270566</v>
+        <v>-0.2482988371336995</v>
       </c>
       <c r="AE53" t="n">
         <v>-0.3392415148146925</v>
       </c>
       <c r="AF53" t="n">
-        <v>-0.8731740510966373</v>
+        <v>-0.8731740510966376</v>
       </c>
       <c r="AG53" t="n">
-        <v>1.896046326799854</v>
+        <v>1.898024085951538</v>
       </c>
       <c r="AH53" t="n">
-        <v>2.581857530933437</v>
+        <v>2.58147032646215</v>
       </c>
       <c r="AI53" t="n">
-        <v>1.619659480055579</v>
+        <v>1.620320210386402</v>
       </c>
       <c r="AJ53" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="AN53" t="n">
-        <v>150607.2760719281</v>
+        <v>154233.4198660504</v>
       </c>
     </row>
     <row r="54">
@@ -7548,28 +7548,28 @@
         <v>0.3113039302564493</v>
       </c>
       <c r="P54" t="n">
-        <v>12161</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.091156560573342</v>
+        <v>1.411821405492972</v>
       </c>
       <c r="R54" t="n">
-        <v>1.411821405492972</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S54" t="n">
-        <v>1.072448498915967</v>
+        <v>1.039482097113232</v>
       </c>
       <c r="T54" t="n">
-        <v>1.039482097113232</v>
+        <v>-1.601166638519612</v>
       </c>
       <c r="U54" t="n">
-        <v>-1.601166638519612</v>
+        <v>-5.759595926687259</v>
       </c>
       <c r="V54" t="n">
-        <v>-5.759595926687259</v>
+        <v>-1.825868801538735</v>
       </c>
       <c r="W54" t="n">
-        <v>-1.825868801538735</v>
+        <v>11357</v>
       </c>
       <c r="X54" t="n">
         <v>-0.5629359530099011</v>
@@ -7590,22 +7590,22 @@
         <v>-1.057946149146389</v>
       </c>
       <c r="AD54" t="n">
-        <v>-1.469447771743665</v>
+        <v>-1.470160891333962</v>
       </c>
       <c r="AE54" t="n">
         <v>-1.825868801538737</v>
       </c>
       <c r="AF54" t="n">
-        <v>-5.180030480350094</v>
+        <v>-5.180030480350093</v>
       </c>
       <c r="AG54" t="n">
-        <v>-1.718717633649936</v>
+        <v>-1.724546241018479</v>
       </c>
       <c r="AH54" t="n">
-        <v>2.212418697522797</v>
+        <v>2.212007184152931</v>
       </c>
       <c r="AI54" t="n">
-        <v>-3.016523284046588</v>
+        <v>-3.023393027248372</v>
       </c>
       <c r="AJ54" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="AN54" t="n">
-        <v>-36683.93965729056</v>
+        <v>-34336.67461045976</v>
       </c>
     </row>
     <row r="55">
@@ -7680,28 +7680,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P55" t="n">
-        <v>11195</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.195823533514361</v>
+        <v>1.426400686979468</v>
       </c>
       <c r="R55" t="n">
-        <v>1.426400686979468</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S55" t="n">
-        <v>1.709644051321019</v>
+        <v>1.21773009806007</v>
       </c>
       <c r="T55" t="n">
-        <v>1.21773009806007</v>
+        <v>-1.931854911786505</v>
       </c>
       <c r="U55" t="n">
-        <v>-1.931854911786505</v>
+        <v>-3.097874658131532</v>
       </c>
       <c r="V55" t="n">
-        <v>-3.097874658131532</v>
+        <v>-0.8894523255595336</v>
       </c>
       <c r="W55" t="n">
-        <v>-0.8894523255595336</v>
+        <v>11095</v>
       </c>
       <c r="X55" t="n">
         <v>0.04686455386542025</v>
@@ -7722,22 +7722,22 @@
         <v>-0.4992819393574253</v>
       </c>
       <c r="AD55" t="n">
-        <v>-0.7844555942192211</v>
+        <v>-0.7866175993106912</v>
       </c>
       <c r="AE55" t="n">
         <v>-0.8894523255595354</v>
       </c>
       <c r="AF55" t="n">
-        <v>-2.123366871349494</v>
+        <v>-2.123366871349492</v>
       </c>
       <c r="AG55" t="n">
-        <v>-2.754762198555528</v>
+        <v>-2.761241599341184</v>
       </c>
       <c r="AH55" t="n">
-        <v>2.613176771798421</v>
+        <v>2.612771162694035</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.302888999982749</v>
+        <v>-1.311082137537246</v>
       </c>
       <c r="AJ55" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="AN55" t="n">
-        <v>-14585.84235480687</v>
+        <v>-14546.45631597575</v>
       </c>
     </row>
     <row r="56">
@@ -7812,28 +7812,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P56" t="n">
-        <v>6489</v>
+        <v>1.30049050645538</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.30049050645538</v>
+        <v>1.397242124006477</v>
       </c>
       <c r="R56" t="n">
-        <v>1.397242124006477</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S56" t="n">
-        <v>1.072448498915967</v>
+        <v>1.269719098336232</v>
       </c>
       <c r="T56" t="n">
-        <v>1.269719098336232</v>
+        <v>-1.305346409951829</v>
       </c>
       <c r="U56" t="n">
-        <v>-1.305346409951829</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V56" t="n">
-        <v>-1.683835234211311</v>
+        <v>0.8405374351478091</v>
       </c>
       <c r="W56" t="n">
-        <v>0.8405374351478091</v>
+        <v>6250</v>
       </c>
       <c r="X56" t="n">
         <v>-0.2447774167113242</v>
@@ -7854,22 +7854,22 @@
         <v>-0.02137452246113254</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.4614391881004438</v>
+        <v>0.4612765409950876</v>
       </c>
       <c r="AE56" t="n">
         <v>0.8405374351478073</v>
       </c>
       <c r="AF56" t="n">
-        <v>-2.294608593001662</v>
+        <v>-2.294608593001661</v>
       </c>
       <c r="AG56" t="n">
-        <v>-2.212054924297903</v>
+        <v>-2.208374639867261</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.437971228914445</v>
+        <v>2.437532407158839</v>
       </c>
       <c r="AI56" t="n">
-        <v>-0.2981629798252416</v>
+        <v>-0.3002900352781273</v>
       </c>
       <c r="AJ56" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="AN56" t="n">
-        <v>-1934.779576085993</v>
+        <v>-1876.812720488295</v>
       </c>
     </row>
     <row r="57">
@@ -7944,28 +7944,28 @@
         <v>0.5915158065551357</v>
       </c>
       <c r="P57" t="n">
-        <v>10071</v>
+        <v>0.5678216958682486</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.5678216958682486</v>
+        <v>0.6536987681951855</v>
       </c>
       <c r="R57" t="n">
-        <v>0.6536987681951855</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.6755590951801042</v>
       </c>
       <c r="T57" t="n">
-        <v>0.6755590951801042</v>
+        <v>-1.054046961621328</v>
       </c>
       <c r="U57" t="n">
-        <v>-1.054046961621328</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V57" t="n">
-        <v>-0.7688685481452797</v>
+        <v>0.4887199455849991</v>
       </c>
       <c r="W57" t="n">
-        <v>0.4887199455849991</v>
+        <v>10370</v>
       </c>
       <c r="X57" t="n">
         <v>0.08346518237064555</v>
@@ -7986,7 +7986,7 @@
         <v>0.05702737007336367</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.1855724811466374</v>
+        <v>0.1840906322202387</v>
       </c>
       <c r="AE57" t="n">
         <v>0.4887199455849973</v>
@@ -7995,13 +7995,13 @@
         <v>-1.269265820587624</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.9892819993315878</v>
+        <v>-0.9879140905752546</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.9267376594237059</v>
+        <v>0.9266198051223605</v>
       </c>
       <c r="AI57" t="n">
-        <v>-0.3271771954286009</v>
+        <v>-0.3288579479014611</v>
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         </is>
       </c>
       <c r="AN57" t="n">
-        <v>-3295.00153516144</v>
+        <v>-3410.256919738151</v>
       </c>
     </row>
     <row r="58">
@@ -8076,28 +8076,28 @@
         <v>0.5198134123354567</v>
       </c>
       <c r="P58" t="n">
-        <v>10650</v>
+        <v>0.4631547229272299</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.4631547229272299</v>
+        <v>0.580802360762706</v>
       </c>
       <c r="R58" t="n">
-        <v>0.580802360762706</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.497311094233266</v>
       </c>
       <c r="T58" t="n">
-        <v>0.497311094233266</v>
+        <v>-1.127394618737913</v>
       </c>
       <c r="U58" t="n">
-        <v>-1.127394618737913</v>
+        <v>0.2292769275631181</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2292769275631181</v>
+        <v>-1.537537174754178</v>
       </c>
       <c r="W58" t="n">
-        <v>-1.537537174754178</v>
+        <v>11355</v>
       </c>
       <c r="X58" t="n">
         <v>0.1321714891397655</v>
@@ -8118,7 +8118,7 @@
         <v>-0.4035845304284814</v>
       </c>
       <c r="AD58" t="n">
-        <v>-0.196458335917291</v>
+        <v>-0.1983054334009894</v>
       </c>
       <c r="AE58" t="n">
         <v>-1.53753717475418</v>
@@ -8127,13 +8127,13 @@
         <v>-1.434445725153692</v>
       </c>
       <c r="AG58" t="n">
-        <v>-0.003660556715557415</v>
+        <v>-0.008685644236056958</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.6798852283633169</v>
+        <v>0.6795626820606161</v>
       </c>
       <c r="AI58" t="n">
-        <v>-0.6595731422035398</v>
+        <v>-0.6640017873024947</v>
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="AN58" t="n">
-        <v>-7024.453964467699</v>
+        <v>-7539.740294819828</v>
       </c>
     </row>
     <row r="59">
@@ -8208,28 +8208,28 @@
         <v>-0.2591663646241081</v>
       </c>
       <c r="P59" t="n">
-        <v>28157</v>
+        <v>1.509824452337417</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.509824452337417</v>
+        <v>1.426400686979468</v>
       </c>
       <c r="R59" t="n">
-        <v>1.426400686979468</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S59" t="n">
-        <v>1.072448498915967</v>
+        <v>1.487577766160145</v>
       </c>
       <c r="T59" t="n">
-        <v>1.487577766160145</v>
+        <v>-0.4580726232237261</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.4580726232237261</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V59" t="n">
-        <v>-0.7688685481452797</v>
+        <v>1.126223817649936</v>
       </c>
       <c r="W59" t="n">
-        <v>1.126223817649936</v>
+        <v>28367</v>
       </c>
       <c r="X59" t="n">
         <v>-0.001246272221911833</v>
@@ -8250,22 +8250,22 @@
         <v>0.2885132421507309</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.5516477007312627</v>
+        <v>-0.5530197803604834</v>
       </c>
       <c r="AE59" t="n">
         <v>1.126223817649935</v>
       </c>
       <c r="AF59" t="n">
-        <v>-0.7720213959765889</v>
+        <v>-0.7720213959765887</v>
       </c>
       <c r="AG59" t="n">
-        <v>-0.2680903808741988</v>
+        <v>-0.2689120043837348</v>
       </c>
       <c r="AH59" t="n">
-        <v>2.745153419130814</v>
+        <v>2.744935439256014</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.9185793663693953</v>
+        <v>0.9159609631537513</v>
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="AN59" t="n">
-        <v>25864.43921886306</v>
+        <v>25983.06464178246</v>
       </c>
     </row>
     <row r="60">
@@ -8340,28 +8340,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P60" t="n">
-        <v>13309</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.195823533514361</v>
+        <v>1.397242124006477</v>
       </c>
       <c r="R60" t="n">
-        <v>1.397242124006477</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S60" t="n">
-        <v>1.072448498915967</v>
+        <v>1.024628097034329</v>
       </c>
       <c r="T60" t="n">
-        <v>1.024628097034329</v>
+        <v>-0.7666975009747982</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.7666975009747982</v>
+        <v>-1.434298865284212</v>
       </c>
       <c r="V60" t="n">
-        <v>-1.434298865284212</v>
+        <v>-0.9264857455135123</v>
       </c>
       <c r="W60" t="n">
-        <v>-0.9264857455135123</v>
+        <v>14120</v>
       </c>
       <c r="X60" t="n">
         <v>-0.4751728621372537</v>
@@ -8382,22 +8382,22 @@
         <v>-0.2614489232760464</v>
       </c>
       <c r="AD60" t="n">
-        <v>-0.5626443027219059</v>
+        <v>-0.5623379421978395</v>
       </c>
       <c r="AE60" t="n">
         <v>-0.926485745513514</v>
       </c>
       <c r="AF60" t="n">
-        <v>-1.219990874782811</v>
+        <v>-1.21999087478281</v>
       </c>
       <c r="AG60" t="n">
-        <v>-0.6586476736245463</v>
+        <v>-0.6548509706127751</v>
       </c>
       <c r="AH60" t="n">
-        <v>2.252915576597247</v>
+        <v>2.252498175232709</v>
       </c>
       <c r="AI60" t="n">
-        <v>-0.07438455029298163</v>
+        <v>-0.07501558767743188</v>
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="AN60" t="n">
-        <v>-989.9839798492925</v>
+        <v>-1059.220098005338</v>
       </c>
     </row>
     <row r="61">
@@ -8472,28 +8472,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P61" t="n">
-        <v>7269</v>
+        <v>1.614491425278436</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.614491425278436</v>
+        <v>1.499297094411948</v>
       </c>
       <c r="R61" t="n">
-        <v>1.499297094411948</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S61" t="n">
-        <v>1.072448498915967</v>
+        <v>1.576701766633564</v>
       </c>
       <c r="T61" t="n">
-        <v>1.576701766633564</v>
+        <v>-0.805045783657059</v>
       </c>
       <c r="U61" t="n">
-        <v>-0.805045783657059</v>
+        <v>-0.4361533895758138</v>
       </c>
       <c r="V61" t="n">
-        <v>-0.4361533895758138</v>
+        <v>0.4305245713716029</v>
       </c>
       <c r="W61" t="n">
-        <v>0.4305245713716029</v>
+        <v>7805</v>
       </c>
       <c r="X61" t="n">
         <v>-0.3458177821857434</v>
@@ -8514,22 +8514,22 @@
         <v>0.1574714737611571</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.1882936468514458</v>
+        <v>0.1882019369464527</v>
       </c>
       <c r="AE61" t="n">
         <v>0.4305245713716011</v>
       </c>
       <c r="AF61" t="n">
-        <v>-0.937970909551521</v>
+        <v>-0.9379709095515208</v>
       </c>
       <c r="AG61" t="n">
-        <v>-0.8677518078636078</v>
+        <v>-0.8611012135853749</v>
       </c>
       <c r="AH61" t="n">
-        <v>2.820812391657162</v>
+        <v>2.820330900158089</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.9003959318500828</v>
+        <v>0.9005426580407818</v>
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="AN61" t="n">
-        <v>6544.978028618252</v>
+        <v>7028.735446008302</v>
       </c>
     </row>
     <row r="62">
@@ -8604,28 +8604,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P62" t="n">
-        <v>4415</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.091156560573342</v>
+        <v>1.105656494276558</v>
       </c>
       <c r="R62" t="n">
-        <v>1.105656494276558</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S62" t="n">
-        <v>1.072448498915967</v>
+        <v>0.8934177630040175</v>
       </c>
       <c r="T62" t="n">
-        <v>0.8934177630040175</v>
+        <v>-1.933299538873851</v>
       </c>
       <c r="U62" t="n">
-        <v>-1.933299538873851</v>
+        <v>-2.765159499562066</v>
       </c>
       <c r="V62" t="n">
-        <v>-2.765159499562066</v>
+        <v>-0.9079690355365214</v>
       </c>
       <c r="W62" t="n">
-        <v>-0.9079690355365214</v>
+        <v>3929</v>
       </c>
       <c r="X62" t="n">
         <v>-0.3429593591362788</v>
@@ -8646,7 +8646,7 @@
         <v>-0.5663837604798677</v>
       </c>
       <c r="AD62" t="n">
-        <v>-1.150774280661048</v>
+        <v>-1.151988802067216</v>
       </c>
       <c r="AE62" t="n">
         <v>-0.9079690355365232</v>
@@ -8655,13 +8655,13 @@
         <v>-2.961094615905613</v>
       </c>
       <c r="AG62" t="n">
-        <v>-2.505904248960513</v>
+        <v>-2.502503010705618</v>
       </c>
       <c r="AH62" t="n">
-        <v>2.06931473626712</v>
+        <v>2.069278643251421</v>
       </c>
       <c r="AI62" t="n">
-        <v>-2.07781862706696</v>
+        <v>-2.080655598036358</v>
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="AN62" t="n">
-        <v>-9173.569238500628</v>
+        <v>-8174.895844684852</v>
       </c>
     </row>
     <row r="63">
@@ -8736,28 +8736,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P63" t="n">
-        <v>25758</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.195823533514361</v>
+        <v>1.178552901709038</v>
       </c>
       <c r="R63" t="n">
-        <v>1.178552901709038</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S63" t="n">
-        <v>1.072448498915967</v>
+        <v>0.8166720959296845</v>
       </c>
       <c r="T63" t="n">
-        <v>0.8166720959296845</v>
+        <v>-1.462942092207695</v>
       </c>
       <c r="U63" t="n">
-        <v>-1.462942092207695</v>
+        <v>-1.184762496357112</v>
       </c>
       <c r="V63" t="n">
-        <v>-1.184762496357112</v>
+        <v>-2.013681145591061</v>
       </c>
       <c r="W63" t="n">
-        <v>-2.013681145591061</v>
+        <v>27361</v>
       </c>
       <c r="X63" t="n">
         <v>-0.1238736294688181</v>
@@ -8778,22 +8778,22 @@
         <v>-0.6085891052181818</v>
       </c>
       <c r="AD63" t="n">
-        <v>-0.7706774561104943</v>
+        <v>-0.7722178680874127</v>
       </c>
       <c r="AE63" t="n">
         <v>-2.013681145591063</v>
       </c>
       <c r="AF63" t="n">
-        <v>-2.23048075913031</v>
+        <v>-2.230480759130309</v>
       </c>
       <c r="AG63" t="n">
-        <v>-2.341872907243319</v>
+        <v>-2.346924964936891</v>
       </c>
       <c r="AH63" t="n">
-        <v>2.484546890215893</v>
+        <v>2.485883642917926</v>
       </c>
       <c r="AI63" t="n">
-        <v>-1.428009747449629</v>
+        <v>-1.434329789117772</v>
       </c>
       <c r="AJ63" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="AN63" t="n">
-        <v>-36782.67507480754</v>
+        <v>-39244.69736005137</v>
       </c>
     </row>
     <row r="64">
@@ -8868,28 +8868,28 @@
         <v>-0.3000403591482119</v>
       </c>
       <c r="P64" t="n">
-        <v>57876</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.091156560573342</v>
+        <v>1.484717812925452</v>
       </c>
       <c r="R64" t="n">
-        <v>1.484717812925452</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S64" t="n">
-        <v>1.709644051321019</v>
+        <v>1.163265431104092</v>
       </c>
       <c r="T64" t="n">
-        <v>1.163265431104092</v>
+        <v>-1.361949525828728</v>
       </c>
       <c r="U64" t="n">
-        <v>-1.361949525828728</v>
+        <v>-1.351120075641845</v>
       </c>
       <c r="V64" t="n">
-        <v>-1.351120075641845</v>
+        <v>-1.743866228783495</v>
       </c>
       <c r="W64" t="n">
-        <v>-1.743866228783495</v>
+        <v>56286</v>
       </c>
       <c r="X64" t="n">
         <v>-0.1230497813108345</v>
@@ -8910,22 +8910,22 @@
         <v>-0.4284633173797247</v>
       </c>
       <c r="AD64" t="n">
-        <v>-0.4879295027709077</v>
+        <v>-0.4892551665027114</v>
       </c>
       <c r="AE64" t="n">
         <v>-1.743866228783497</v>
       </c>
       <c r="AF64" t="n">
-        <v>-2.003771777116739</v>
+        <v>-2.003771777116738</v>
       </c>
       <c r="AG64" t="n">
-        <v>-1.195304464808022</v>
+        <v>-1.200963737067948</v>
       </c>
       <c r="AH64" t="n">
-        <v>2.896547315186185</v>
+        <v>2.897436284634483</v>
       </c>
       <c r="AI64" t="n">
-        <v>-0.4149762219085975</v>
+        <v>-0.4210181885873658</v>
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="AN64" t="n">
-        <v>-24017.16381918199</v>
+        <v>-23697.42976282847</v>
       </c>
     </row>
     <row r="65">
@@ -9000,28 +9000,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P65" t="n">
-        <v>12359</v>
+        <v>1.405157479396398</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.405157479396398</v>
+        <v>1.368083561033485</v>
       </c>
       <c r="R65" t="n">
-        <v>1.368083561033485</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S65" t="n">
-        <v>1.072448498915967</v>
+        <v>1.299427098494038</v>
       </c>
       <c r="T65" t="n">
-        <v>1.299427098494038</v>
+        <v>-1.227336547235175</v>
       </c>
       <c r="U65" t="n">
-        <v>-1.227336547235175</v>
+        <v>-0.4361533895758138</v>
       </c>
       <c r="V65" t="n">
-        <v>-0.4361533895758138</v>
+        <v>-0.4635679960887665</v>
       </c>
       <c r="W65" t="n">
-        <v>-0.4635679960887665</v>
+        <v>13083</v>
       </c>
       <c r="X65" t="n">
         <v>0.03266337594380505</v>
@@ -9042,7 +9042,7 @@
         <v>-0.2552691503367782</v>
       </c>
       <c r="AD65" t="n">
-        <v>-0.3629827001707472</v>
+        <v>-0.3646470758842114</v>
       </c>
       <c r="AE65" t="n">
         <v>-0.4635679960887683</v>
@@ -9051,13 +9051,13 @@
         <v>-1.475830592863355</v>
       </c>
       <c r="AG65" t="n">
-        <v>-1.838036193871497</v>
+        <v>-1.842432790963515</v>
       </c>
       <c r="AH65" t="n">
-        <v>2.494329132598236</v>
+        <v>2.493882302007402</v>
       </c>
       <c r="AI65" t="n">
-        <v>-0.3819028261155155</v>
+        <v>-0.3880648387090941</v>
       </c>
       <c r="AJ65" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="AN65" t="n">
-        <v>-4719.937027961656</v>
+        <v>-5077.052284831078</v>
       </c>
     </row>
     <row r="66">
@@ -9132,28 +9132,28 @@
         <v>-0.3246715113168671</v>
       </c>
       <c r="P66" t="n">
-        <v>64979</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.091077212790063</v>
       </c>
       <c r="R66" t="n">
-        <v>1.091077212790063</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S66" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7448777622149857</v>
       </c>
       <c r="T66" t="n">
-        <v>0.7448777622149857</v>
+        <v>-0.8716956242777693</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.8716956242777693</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.7688685481452797</v>
+        <v>-1.944904794247954</v>
       </c>
       <c r="W66" t="n">
-        <v>-1.944904794247954</v>
+        <v>65795</v>
       </c>
       <c r="X66" t="n">
         <v>-0.2110311111895626</v>
@@ -9174,7 +9174,7 @@
         <v>-0.4610631018148018</v>
       </c>
       <c r="AD66" t="n">
-        <v>-0.6984691032593773</v>
+        <v>-0.699061184450199</v>
       </c>
       <c r="AE66" t="n">
         <v>-1.944904794247956</v>
@@ -9183,13 +9183,13 @@
         <v>-1.370045072336229</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.3021674406726682</v>
+        <v>0.3026629502493894</v>
       </c>
       <c r="AH66" t="n">
-        <v>1.842166277897559</v>
+        <v>1.841821307700562</v>
       </c>
       <c r="AI66" t="n">
-        <v>-0.2002855602448541</v>
+        <v>-0.2021328258651756</v>
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="AN66" t="n">
-        <v>-13014.35541915038</v>
+        <v>-13299.32927779923</v>
       </c>
     </row>
     <row r="67">
@@ -9264,28 +9264,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P67" t="n">
-        <v>2108</v>
+        <v>1.614491425278436</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.614491425278436</v>
+        <v>1.645089909276907</v>
       </c>
       <c r="R67" t="n">
-        <v>1.645089909276907</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S67" t="n">
-        <v>0.4352529465109155</v>
+        <v>1.611361100151005</v>
       </c>
       <c r="T67" t="n">
-        <v>1.611361100151005</v>
+        <v>-0.5010174466384497</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.5010174466384497</v>
+        <v>-1.184762496357112</v>
       </c>
       <c r="V67" t="n">
-        <v>-1.184762496357112</v>
+        <v>-1.463470334846218</v>
       </c>
       <c r="W67" t="n">
-        <v>-1.463470334846218</v>
+        <v>2229</v>
       </c>
       <c r="X67" t="n">
         <v>-1.279097845607261</v>
@@ -9306,7 +9306,7 @@
         <v>-0.438202070879042</v>
       </c>
       <c r="AD67" t="n">
-        <v>-3.170491050279859</v>
+        <v>-3.167617482422205</v>
       </c>
       <c r="AE67" t="n">
         <v>-1.46347033484622</v>
@@ -9315,13 +9315,13 @@
         <v>-1.344610320148521</v>
       </c>
       <c r="AG67" t="n">
-        <v>-0.7549758770333538</v>
+        <v>-0.7461160008926541</v>
       </c>
       <c r="AH67" t="n">
-        <v>2.671920508773507</v>
+        <v>2.671408470247469</v>
       </c>
       <c r="AI67" t="n">
-        <v>-1.411580579551447</v>
+        <v>-1.408525578799299</v>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="AN67" t="n">
-        <v>-2975.611861694451</v>
+        <v>-3139.603515143639</v>
       </c>
     </row>
     <row r="68">
@@ -9396,28 +9396,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P68" t="n">
-        <v>16695</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.091156560573342</v>
+        <v>1.149394338736046</v>
       </c>
       <c r="R68" t="n">
-        <v>1.149394338736046</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S68" t="n">
-        <v>1.072448498915967</v>
+        <v>0.9008447630434692</v>
       </c>
       <c r="T68" t="n">
-        <v>0.9008447630434692</v>
+        <v>-1.01313774910241</v>
       </c>
       <c r="U68" t="n">
-        <v>-1.01313774910241</v>
+        <v>-0.8520473377876462</v>
       </c>
       <c r="V68" t="n">
-        <v>-0.8520473377876462</v>
+        <v>-1.648637434616117</v>
       </c>
       <c r="W68" t="n">
-        <v>-1.648637434616117</v>
+        <v>16242</v>
       </c>
       <c r="X68" t="n">
         <v>-0.04373610129485047</v>
@@ -9438,7 +9438,7 @@
         <v>-0.4242862443303764</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.4313751884411513</v>
+        <v>0.4305649787249909</v>
       </c>
       <c r="AE68" t="n">
         <v>-1.648637434616119</v>
@@ -9447,13 +9447,13 @@
         <v>-1.644798289327475</v>
       </c>
       <c r="AG68" t="n">
-        <v>-0.490189345428548</v>
+        <v>-0.4899591497880239</v>
       </c>
       <c r="AH68" t="n">
-        <v>2.012843916134154</v>
+        <v>2.01248889643762</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.07285444549747044</v>
+        <v>0.06980770291477212</v>
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         </is>
       </c>
       <c r="AN68" t="n">
-        <v>1216.304967580269</v>
+        <v>1133.816710741729</v>
       </c>
     </row>
     <row r="69">
@@ -9528,28 +9528,28 @@
         <v>0.3521219715781242</v>
       </c>
       <c r="P69" t="n">
-        <v>24460</v>
+        <v>1.405157479396398</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.405157479396398</v>
+        <v>1.557614220357931</v>
       </c>
       <c r="R69" t="n">
-        <v>1.557614220357931</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S69" t="n">
-        <v>1.072448498915967</v>
+        <v>1.450442765962887</v>
       </c>
       <c r="T69" t="n">
-        <v>1.450442765962887</v>
+        <v>-0.4173604053076272</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.4173604053076272</v>
+        <v>-0.8520473377876462</v>
       </c>
       <c r="V69" t="n">
-        <v>-0.8520473377876462</v>
+        <v>-1.72005903024165</v>
       </c>
       <c r="W69" t="n">
-        <v>-1.72005903024165</v>
+        <v>24388</v>
       </c>
       <c r="X69" t="n">
         <v>-0.1507708059789865</v>
@@ -9570,22 +9570,22 @@
         <v>-0.3596089774896944</v>
       </c>
       <c r="AD69" t="n">
-        <v>-0.7960694364638229</v>
+        <v>-0.7972787429169458</v>
       </c>
       <c r="AE69" t="n">
         <v>-1.720059030241652</v>
       </c>
       <c r="AF69" t="n">
-        <v>-1.835328996546883</v>
+        <v>-1.835328996546884</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.689758952127331</v>
+        <v>0.6857603817094425</v>
       </c>
       <c r="AH69" t="n">
-        <v>2.781890661377244</v>
+        <v>2.781844393452103</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.2465204592393</v>
+        <v>0.2423400098654127</v>
       </c>
       <c r="AJ69" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="AN69" t="n">
-        <v>6029.890432993277</v>
+        <v>5910.188160597685</v>
       </c>
     </row>
     <row r="70">
@@ -9660,28 +9660,28 @@
         <v>0.009358298193630054</v>
       </c>
       <c r="P70" t="n">
-        <v>17923</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.9452843979251035</v>
       </c>
       <c r="R70" t="n">
-        <v>0.9452843979251035</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S70" t="n">
-        <v>0.4352529465109155</v>
+        <v>0.6309970949433946</v>
       </c>
       <c r="T70" t="n">
-        <v>0.6309970949433946</v>
+        <v>-1.20514182198414</v>
       </c>
       <c r="U70" t="n">
-        <v>-1.20514182198414</v>
+        <v>-1.101583706714746</v>
       </c>
       <c r="V70" t="n">
-        <v>-1.101583706714746</v>
+        <v>-0.08000757513683163</v>
       </c>
       <c r="W70" t="n">
-        <v>-0.08000757513683163</v>
+        <v>18178</v>
       </c>
       <c r="X70" t="n">
         <v>0.1419941964354194</v>
@@ -9702,7 +9702,7 @@
         <v>-0.1116950828080133</v>
       </c>
       <c r="AD70" t="n">
-        <v>-0.3377945886403861</v>
+        <v>-0.3398643753422436</v>
       </c>
       <c r="AE70" t="n">
         <v>-0.08000757513683344</v>
@@ -9711,13 +9711,13 @@
         <v>-1.622254888086436</v>
       </c>
       <c r="AG70" t="n">
-        <v>-0.1273818133744303</v>
+        <v>-0.1278519455745362</v>
       </c>
       <c r="AH70" t="n">
-        <v>1.454301260919616</v>
+        <v>1.453911530212797</v>
       </c>
       <c r="AI70" t="n">
-        <v>-0.2080278669031176</v>
+        <v>-0.2107259534742746</v>
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="AN70" t="n">
-        <v>-3728.483458504576</v>
+        <v>-3830.576382255364</v>
       </c>
     </row>
     <row r="71">
@@ -9792,28 +9792,28 @@
         <v>-0.09858214154080386</v>
       </c>
       <c r="P71" t="n">
-        <v>20333</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.8723879904926239</v>
       </c>
       <c r="R71" t="n">
-        <v>0.8723879904926239</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S71" t="n">
-        <v>0.4352529465109155</v>
+        <v>0.6012890947855882</v>
       </c>
       <c r="T71" t="n">
-        <v>0.6012890947855882</v>
+        <v>-1.32353557827886</v>
       </c>
       <c r="U71" t="n">
-        <v>-1.32353557827886</v>
+        <v>-1.184762496357112</v>
       </c>
       <c r="V71" t="n">
-        <v>-1.184762496357112</v>
+        <v>-1.407920204915249</v>
       </c>
       <c r="W71" t="n">
-        <v>-1.407920204915249</v>
+        <v>19681</v>
       </c>
       <c r="X71" t="n">
         <v>-0.3426770681885958</v>
@@ -9834,7 +9834,7 @@
         <v>-0.4899085426809539</v>
       </c>
       <c r="AD71" t="n">
-        <v>-0.6389844557095561</v>
+        <v>-0.6392927115282807</v>
       </c>
       <c r="AE71" t="n">
         <v>-1.40792020491525</v>
@@ -9843,13 +9843,13 @@
         <v>-1.866470756452784</v>
       </c>
       <c r="AG71" t="n">
-        <v>-0.3999025439316737</v>
+        <v>-0.4005165458785132</v>
       </c>
       <c r="AH71" t="n">
-        <v>1.410677780232408</v>
+        <v>1.410330575813336</v>
       </c>
       <c r="AI71" t="n">
-        <v>-0.8433812336698198</v>
+        <v>-0.8457651566332528</v>
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="AN71" t="n">
-        <v>-17148.47062420845</v>
+        <v>-16645.50404769905</v>
       </c>
     </row>
     <row r="72">
@@ -9924,28 +9924,28 @@
         <v>-0.3719735186265604</v>
       </c>
       <c r="P72" t="n">
-        <v>36264</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.857808709006128</v>
       </c>
       <c r="R72" t="n">
-        <v>0.857808709006128</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S72" t="n">
-        <v>1.072448498915967</v>
+        <v>0.6161430948644915</v>
       </c>
       <c r="T72" t="n">
-        <v>0.6161430948644915</v>
+        <v>-1.397145894865871</v>
       </c>
       <c r="U72" t="n">
-        <v>-1.397145894865871</v>
+        <v>-0.6856897585029132</v>
       </c>
       <c r="V72" t="n">
-        <v>-0.6856897585029132</v>
+        <v>-0.6963494929423513</v>
       </c>
       <c r="W72" t="n">
-        <v>-0.6963494929423513</v>
+        <v>36873</v>
       </c>
       <c r="X72" t="n">
         <v>-0.282776185507178</v>
@@ -9966,7 +9966,7 @@
         <v>-0.3221110971692277</v>
       </c>
       <c r="AD72" t="n">
-        <v>-0.6468807542720444</v>
+        <v>-0.6473910575294939</v>
       </c>
       <c r="AE72" t="n">
         <v>-0.696349492942353</v>
@@ -9975,13 +9975,13 @@
         <v>-1.701610628836877</v>
       </c>
       <c r="AG72" t="n">
-        <v>-0.5362375912189907</v>
+        <v>-0.5402083003332875</v>
       </c>
       <c r="AH72" t="n">
-        <v>1.722620754997788</v>
+        <v>1.722557792974665</v>
       </c>
       <c r="AI72" t="n">
-        <v>-0.539969291766618</v>
+        <v>-0.5437547215893676</v>
       </c>
       <c r="AJ72" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="AN72" t="n">
-        <v>-19581.44639662464</v>
+        <v>-20049.86784916475</v>
       </c>
     </row>
     <row r="73">
@@ -10056,28 +10056,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P73" t="n">
-        <v>7157</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.195823533514361</v>
+        <v>1.280607872114509</v>
       </c>
       <c r="R73" t="n">
-        <v>1.280607872114509</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S73" t="n">
-        <v>1.072448498915967</v>
+        <v>0.9973957635563399</v>
       </c>
       <c r="T73" t="n">
-        <v>0.9973957635563399</v>
+        <v>-1.579759891679857</v>
       </c>
       <c r="U73" t="n">
-        <v>-1.579759891679857</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V73" t="n">
-        <v>-1.683835234211311</v>
+        <v>0.888151832231495</v>
       </c>
       <c r="W73" t="n">
-        <v>0.888151832231495</v>
+        <v>6400</v>
       </c>
       <c r="X73" t="n">
         <v>-0.3832307334514746</v>
@@ -10098,22 +10098,22 @@
         <v>-0.5648591168859177</v>
       </c>
       <c r="AD73" t="n">
-        <v>-1.778120061103986</v>
+        <v>-1.77968181700765</v>
       </c>
       <c r="AE73" t="n">
         <v>0.8881518322314932</v>
       </c>
       <c r="AF73" t="n">
-        <v>-5.688677495075603</v>
+        <v>-5.688677495075605</v>
       </c>
       <c r="AG73" t="n">
-        <v>-3.605908114647257</v>
+        <v>-3.603426741577562</v>
       </c>
       <c r="AH73" t="n">
-        <v>2.177648743658374</v>
+        <v>2.177236621518377</v>
       </c>
       <c r="AI73" t="n">
-        <v>-3.783657892345487</v>
+        <v>-3.787932831617096</v>
       </c>
       <c r="AJ73" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         </is>
       </c>
       <c r="AN73" t="n">
-        <v>-27079.63953551665</v>
+        <v>-24242.77012234942</v>
       </c>
     </row>
     <row r="74">
@@ -10188,28 +10188,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P74" t="n">
-        <v>30628</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.585540158156966</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.585540158156966</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S74" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.4137342439394627</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.4137342439394627</v>
+        <v>-1.523944754214237</v>
       </c>
       <c r="U74" t="n">
-        <v>-1.523944754214237</v>
+        <v>-1.018404917072379</v>
       </c>
       <c r="V74" t="n">
-        <v>-1.018404917072379</v>
+        <v>-3.137909965622589</v>
       </c>
       <c r="W74" t="n">
-        <v>-3.137909965622589</v>
+        <v>29370</v>
       </c>
       <c r="X74" t="n">
         <v>-1.209369266854796</v>
@@ -10230,7 +10230,7 @@
         <v>-1.419097318003468</v>
       </c>
       <c r="AD74" t="n">
-        <v>-4.276322012556819</v>
+        <v>-4.275646596500247</v>
       </c>
       <c r="AE74" t="n">
         <v>-3.13790996562259</v>
@@ -10239,13 +10239,13 @@
         <v>-2.383495350376341</v>
       </c>
       <c r="AG74" t="n">
-        <v>-1.187515000811172</v>
+        <v>-1.187805084866419</v>
       </c>
       <c r="AH74" t="n">
-        <v>-1.632437117842537</v>
+        <v>-1.632659639322533</v>
       </c>
       <c r="AI74" t="n">
-        <v>-5.284462718140222</v>
+        <v>-5.284580591985028</v>
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="AN74" t="n">
-        <v>-161852.5241311987</v>
+        <v>-155208.1319866003</v>
       </c>
     </row>
     <row r="75">
@@ -10320,28 +10320,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P75" t="n">
-        <v>9947</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q75" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6292780026164537</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.6292780026164537</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S75" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.3716479103825704</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.3716479103825704</v>
+        <v>-0.8401764878265959</v>
       </c>
       <c r="U75" t="n">
-        <v>-0.8401764878265959</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V75" t="n">
-        <v>-0.7688685481452797</v>
+        <v>0.2136145402125791</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2136145402125791</v>
+        <v>9731</v>
       </c>
       <c r="X75" t="n">
         <v>-0.7595970973237786</v>
@@ -10362,22 +10362,22 @@
         <v>-0.1791389318724485</v>
       </c>
       <c r="AD75" t="n">
-        <v>-1.399172128234564</v>
+        <v>-1.397675206461718</v>
       </c>
       <c r="AE75" t="n">
         <v>0.2136145402125773</v>
       </c>
       <c r="AF75" t="n">
-        <v>-0.4501752614628375</v>
+        <v>-0.4501752614628369</v>
       </c>
       <c r="AG75" t="n">
-        <v>0.6128250489618813</v>
+        <v>0.6253387197005239</v>
       </c>
       <c r="AH75" t="n">
-        <v>-1.656882939196257</v>
+        <v>-1.656976750662623</v>
       </c>
       <c r="AI75" t="n">
-        <v>-1.551120662521034</v>
+        <v>-1.543237963982049</v>
       </c>
       <c r="AJ75" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="AN75" t="n">
-        <v>-15428.99723009672</v>
+        <v>-15017.24862750932</v>
       </c>
     </row>
     <row r="76">
@@ -10452,28 +10452,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P76" t="n">
-        <v>22124</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q76" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.5709608766704701</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.5709608766704701</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S76" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.3518425769440328</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.3518425769440328</v>
+        <v>-1.810571901317094</v>
       </c>
       <c r="U76" t="n">
-        <v>-1.810571901317094</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V76" t="n">
-        <v>-1.683835234211311</v>
+        <v>-2.18826726823125</v>
       </c>
       <c r="W76" t="n">
-        <v>-2.18826726823125</v>
+        <v>20197</v>
       </c>
       <c r="X76" t="n">
         <v>-0.9293500173007034</v>
@@ -10494,22 +10494,22 @@
         <v>-1.482575008969425</v>
       </c>
       <c r="AD76" t="n">
-        <v>-3.734746597862477</v>
+        <v>-3.735076464202392</v>
       </c>
       <c r="AE76" t="n">
         <v>-2.188267268231252</v>
       </c>
       <c r="AF76" t="n">
-        <v>-4.340608453721926</v>
+        <v>-4.340608453721927</v>
       </c>
       <c r="AG76" t="n">
-        <v>-2.680021018503093</v>
+        <v>-2.683291745676987</v>
       </c>
       <c r="AH76" t="n">
-        <v>-1.648153702939835</v>
+        <v>-1.648373063347941</v>
       </c>
       <c r="AI76" t="n">
-        <v>-6.39302443258471</v>
+        <v>-6.396276661101655</v>
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="AN76" t="n">
-        <v>-141439.2725465041</v>
+        <v>-129185.5997242701</v>
       </c>
     </row>
     <row r="77">
@@ -10584,28 +10584,28 @@
         <v>-0.1334564795392671</v>
       </c>
       <c r="P77" t="n">
-        <v>184945</v>
+        <v>-0.7928489523649946</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.7928489523649946</v>
+        <v>-0.2647959654540563</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.2647959654540563</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S77" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.05723824204578631</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.05723824204578631</v>
+        <v>0.9247638237038965</v>
       </c>
       <c r="U77" t="n">
-        <v>0.9247638237038965</v>
+        <v>0.3124557172054846</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3124557172054846</v>
+        <v>1.239969321794302</v>
       </c>
       <c r="W77" t="n">
-        <v>1.239969321794302</v>
+        <v>191723</v>
       </c>
       <c r="X77" t="n">
         <v>-0.1632361582225668</v>
@@ -10626,7 +10626,7 @@
         <v>0.4002011260510407</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.2829088708142931</v>
+        <v>0.2833268027999628</v>
       </c>
       <c r="AE77" t="n">
         <v>1.2399693217943</v>
@@ -10635,13 +10635,13 @@
         <v>1.193395125352722</v>
       </c>
       <c r="AG77" t="n">
-        <v>3.050000565368984</v>
+        <v>3.053153822864811</v>
       </c>
       <c r="AH77" t="n">
-        <v>-1.185116430999708</v>
+        <v>-1.18523967720496</v>
       </c>
       <c r="AI77" t="n">
-        <v>1.568186692032458</v>
+        <v>1.573211991818216</v>
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         </is>
       </c>
       <c r="AN77" t="n">
-        <v>290028.287757943</v>
+        <v>301620.9227073638</v>
       </c>
     </row>
     <row r="78">
@@ -10716,28 +10716,28 @@
         <v>-0.1127032192441688</v>
       </c>
       <c r="P78" t="n">
-        <v>20758</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q78" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.585540158156966</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.585540158156966</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S78" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.153789242558657</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.153789242558657</v>
+        <v>-1.263714883889237</v>
       </c>
       <c r="U78" t="n">
-        <v>-1.263714883889237</v>
+        <v>-0.1034382310063478</v>
       </c>
       <c r="V78" t="n">
-        <v>-0.1034382310063478</v>
+        <v>-1.296819945053307</v>
       </c>
       <c r="W78" t="n">
-        <v>-1.296819945053307</v>
+        <v>21088</v>
       </c>
       <c r="X78" t="n">
         <v>-0.2751271616928972</v>
@@ -10758,7 +10758,7 @@
         <v>-0.7305240529866333</v>
       </c>
       <c r="AD78" t="n">
-        <v>-1.588390289797323</v>
+        <v>-1.58954700681529</v>
       </c>
       <c r="AE78" t="n">
         <v>-1.296819945053309</v>
@@ -10767,13 +10767,13 @@
         <v>-1.172564412624818</v>
       </c>
       <c r="AG78" t="n">
-        <v>-0.478054665138198</v>
+        <v>-0.4850762700753294</v>
       </c>
       <c r="AH78" t="n">
-        <v>-1.55143066640505</v>
+        <v>-1.551661046033316</v>
       </c>
       <c r="AI78" t="n">
-        <v>-2.648090611770848</v>
+        <v>-2.651489479094257</v>
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="AN78" t="n">
-        <v>-54969.06491913927</v>
+        <v>-55914.61013513969</v>
       </c>
     </row>
     <row r="79">
@@ -10848,28 +10848,28 @@
         <v>0.001414357958501418</v>
       </c>
       <c r="P79" t="n">
-        <v>17010</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q79" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6730158470759414</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.6730158470759414</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S79" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.4434422440972691</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.4434422440972691</v>
+        <v>-2.007435174401714</v>
       </c>
       <c r="U79" t="n">
-        <v>-2.007435174401714</v>
+        <v>-2.515623130634976</v>
       </c>
       <c r="V79" t="n">
-        <v>-2.515623130634976</v>
+        <v>-2.958033354417543</v>
       </c>
       <c r="W79" t="n">
-        <v>-2.958033354417543</v>
+        <v>16121</v>
       </c>
       <c r="X79" t="n">
         <v>-1.567269282414823</v>
@@ -10890,22 +10890,22 @@
         <v>-1.790637451112991</v>
       </c>
       <c r="AD79" t="n">
-        <v>-5.818022731400969</v>
+        <v>-5.817309732245167</v>
       </c>
       <c r="AE79" t="n">
         <v>-2.958033354417545</v>
       </c>
       <c r="AF79" t="n">
-        <v>-5.095550341298895</v>
+        <v>-5.095550341298896</v>
       </c>
       <c r="AG79" t="n">
-        <v>-2.485185235472207</v>
+        <v>-2.487205403154063</v>
       </c>
       <c r="AH79" t="n">
-        <v>-1.74971536847843</v>
+        <v>-1.749926180643422</v>
       </c>
       <c r="AI79" t="n">
-        <v>-7.944089792891814</v>
+        <v>-7.945862974051935</v>
       </c>
       <c r="AJ79" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         </is>
       </c>
       <c r="AN79" t="n">
-        <v>-135128.9673770897</v>
+        <v>-128095.2570046912</v>
       </c>
     </row>
     <row r="80">
@@ -10980,28 +10980,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P80" t="n">
-        <v>8064</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.7313329730219251</v>
       </c>
       <c r="R80" t="n">
-        <v>-0.7313329730219251</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S80" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.6093119116450214</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.6093119116450214</v>
+        <v>-1.855158346421983</v>
       </c>
       <c r="U80" t="n">
-        <v>-1.855158346421983</v>
+        <v>-3.347411027058641</v>
       </c>
       <c r="V80" t="n">
-        <v>-3.347411027058641</v>
+        <v>-3.360110485346466</v>
       </c>
       <c r="W80" t="n">
-        <v>-3.360110485346466</v>
+        <v>7333</v>
       </c>
       <c r="X80" t="n">
         <v>-0.8629573476468929</v>
@@ -11022,7 +11022,7 @@
         <v>-1.816112441771438</v>
       </c>
       <c r="AD80" t="n">
-        <v>-4.053629808889547</v>
+        <v>-4.054604962009513</v>
       </c>
       <c r="AE80" t="n">
         <v>-3.360110485346468</v>
@@ -11031,13 +11031,13 @@
         <v>-5.357588103648204</v>
       </c>
       <c r="AG80" t="n">
-        <v>-2.528503409693977</v>
+        <v>-2.526551845474034</v>
       </c>
       <c r="AH80" t="n">
-        <v>-1.867558683873912</v>
+        <v>-1.867758029808156</v>
       </c>
       <c r="AI80" t="n">
-        <v>-7.284924479117819</v>
+        <v>-7.286529695307888</v>
       </c>
       <c r="AJ80" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         </is>
       </c>
       <c r="AN80" t="n">
-        <v>-58745.6309996061</v>
+        <v>-53432.12225569274</v>
       </c>
     </row>
     <row r="81">
@@ -11112,28 +11112,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P81" t="n">
-        <v>1327</v>
+        <v>-0.7928489523649946</v>
       </c>
       <c r="Q81" t="n">
-        <v>-0.7928489523649946</v>
+        <v>-0.6875951285624373</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.6875951285624373</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S81" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.4929555776936131</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.4929555776936131</v>
+        <v>-1.953983972169933</v>
       </c>
       <c r="U81" t="n">
-        <v>-1.953983972169933</v>
+        <v>-3.097874658131532</v>
       </c>
       <c r="V81" t="n">
-        <v>-3.097874658131532</v>
+        <v>-1.032295516810597</v>
       </c>
       <c r="W81" t="n">
-        <v>-1.032295516810597</v>
+        <v>1273</v>
       </c>
       <c r="X81" t="n">
         <v>-2.020867775605799</v>
@@ -11154,22 +11154,22 @@
         <v>-1.281585673735278</v>
       </c>
       <c r="AD81" t="n">
-        <v>-4.682972456289266</v>
+        <v>-4.679963593506192</v>
       </c>
       <c r="AE81" t="n">
         <v>-1.032295516810599</v>
       </c>
       <c r="AF81" t="n">
-        <v>-5.526118718348503</v>
+        <v>-5.526118718348504</v>
       </c>
       <c r="AG81" t="n">
-        <v>-0.01954761063391471</v>
+        <v>-0.009129916457471439</v>
       </c>
       <c r="AH81" t="n">
-        <v>-1.671540374950897</v>
+        <v>-1.671762277487192</v>
       </c>
       <c r="AI81" t="n">
-        <v>-6.127114531068238</v>
+        <v>-6.120351178350344</v>
       </c>
       <c r="AJ81" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         </is>
       </c>
       <c r="AN81" t="n">
-        <v>-8130.680982727552</v>
+        <v>-7791.207050039988</v>
       </c>
     </row>
     <row r="82">
@@ -11244,28 +11244,28 @@
         <v>-0.2926942494565634</v>
       </c>
       <c r="P82" t="n">
-        <v>28183</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q82" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.6001194396434619</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.6001194396434619</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S82" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.3815505771018392</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.3815505771018392</v>
+        <v>-1.81996197738484</v>
       </c>
       <c r="U82" t="n">
-        <v>-1.81996197738484</v>
+        <v>-1.517477654926578</v>
       </c>
       <c r="V82" t="n">
-        <v>-1.517477654926578</v>
+        <v>-3.233138759789963</v>
       </c>
       <c r="W82" t="n">
-        <v>-3.233138759789963</v>
+        <v>26570</v>
       </c>
       <c r="X82" t="n">
         <v>-1.231435661013724</v>
@@ -11286,7 +11286,7 @@
         <v>-1.516371372990393</v>
       </c>
       <c r="AD82" t="n">
-        <v>-5.154742803048378</v>
+        <v>-5.154483936944914</v>
       </c>
       <c r="AE82" t="n">
         <v>-3.233138759789965</v>
@@ -11295,13 +11295,13 @@
         <v>-2.660905206979383</v>
       </c>
       <c r="AG82" t="n">
-        <v>-1.83797201679277</v>
+        <v>-1.841297262802412</v>
       </c>
       <c r="AH82" t="n">
-        <v>-1.62321552748575</v>
+        <v>-1.623219565278751</v>
       </c>
       <c r="AI82" t="n">
-        <v>-6.165209298698737</v>
+        <v>-6.167053358186443</v>
       </c>
       <c r="AJ82" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="AN82" t="n">
-        <v>-173754.0936652265</v>
+        <v>-163858.6077270138</v>
       </c>
     </row>
     <row r="83">
@@ -11376,28 +11376,28 @@
         <v>0.03969552938889539</v>
       </c>
       <c r="P83" t="n">
-        <v>34192</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.439747343292007</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.439747343292007</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S83" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.1216055757210334</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.1216055757210334</v>
+        <v>-1.084778119661222</v>
       </c>
       <c r="U83" t="n">
-        <v>-1.084778119661222</v>
+        <v>-0.9352261274300127</v>
       </c>
       <c r="V83" t="n">
-        <v>-0.9352261274300127</v>
+        <v>-0.8788713484298233</v>
       </c>
       <c r="W83" t="n">
-        <v>-0.8788713484298233</v>
+        <v>32661</v>
       </c>
       <c r="X83" t="n">
         <v>-0.32040786429941</v>
@@ -11418,22 +11418,22 @@
         <v>-0.6042454629771851</v>
       </c>
       <c r="AD83" t="n">
-        <v>-1.86319013055832</v>
+        <v>-1.864224997194257</v>
       </c>
       <c r="AE83" t="n">
         <v>-0.8788713484298251</v>
       </c>
       <c r="AF83" t="n">
-        <v>-1.041645547832486</v>
+        <v>-1.041645547832485</v>
       </c>
       <c r="AG83" t="n">
-        <v>-0.9667501489326207</v>
+        <v>-0.9696278902458162</v>
       </c>
       <c r="AH83" t="n">
-        <v>-1.379508468664861</v>
+        <v>-1.379665378270377</v>
       </c>
       <c r="AI83" t="n">
-        <v>-2.777079836054376</v>
+        <v>-2.77882683640352</v>
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="AN83" t="n">
-        <v>-94953.91375437123</v>
+        <v>-90759.26330377537</v>
       </c>
     </row>
     <row r="84">
@@ -11508,28 +11508,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P84" t="n">
-        <v>6792</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.4834851877514947</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.4834851877514947</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S84" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.2082539095146353</v>
       </c>
       <c r="T84" t="n">
-        <v>-0.2082539095146353</v>
+        <v>-1.768349391446044</v>
       </c>
       <c r="U84" t="n">
-        <v>-1.768349391446044</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V84" t="n">
-        <v>-1.683835234211311</v>
+        <v>-0.9661644097499177</v>
       </c>
       <c r="W84" t="n">
-        <v>-0.9661644097499177</v>
+        <v>5701</v>
       </c>
       <c r="X84" t="n">
         <v>-1.048829757790783</v>
@@ -11550,7 +11550,7 @@
         <v>-1.238315856045697</v>
       </c>
       <c r="AD84" t="n">
-        <v>-4.404264980742596</v>
+        <v>-4.404532253479398</v>
       </c>
       <c r="AE84" t="n">
         <v>-0.9661644097499195</v>
@@ -11559,13 +11559,13 @@
         <v>-3.676124218900376</v>
       </c>
       <c r="AG84" t="n">
-        <v>-3.374313385493829</v>
+        <v>-3.37938184160019</v>
       </c>
       <c r="AH84" t="n">
-        <v>-1.444798372061688</v>
+        <v>-1.444936666474496</v>
       </c>
       <c r="AI84" t="n">
-        <v>-6.418118846472712</v>
+        <v>-6.42197613116268</v>
       </c>
       <c r="AJ84" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         </is>
       </c>
       <c r="AN84" t="n">
-        <v>-43591.86320524266</v>
+        <v>-36611.68592375844</v>
       </c>
     </row>
     <row r="85">
@@ -11640,28 +11640,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P85" t="n">
-        <v>4321</v>
+        <v>-0.7928489523649946</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.7928489523649946</v>
+        <v>-0.6584365655894455</v>
       </c>
       <c r="R85" t="n">
-        <v>-0.6584365655894455</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S85" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.5276149112110539</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.5276149112110539</v>
+        <v>-1.717590448786133</v>
       </c>
       <c r="U85" t="n">
-        <v>-1.717590448786133</v>
+        <v>-1.93337160313841</v>
       </c>
       <c r="V85" t="n">
-        <v>-1.93337160313841</v>
+        <v>-1.143395776672536</v>
       </c>
       <c r="W85" t="n">
-        <v>-1.143395776672536</v>
+        <v>3488</v>
       </c>
       <c r="X85" t="n">
         <v>-0.4841606943329148</v>
@@ -11682,22 +11682,22 @@
         <v>-1.036793767384746</v>
       </c>
       <c r="AD85" t="n">
-        <v>-3.76426439807879</v>
+        <v>-3.766017354863304</v>
       </c>
       <c r="AE85" t="n">
         <v>-1.143395776672538</v>
       </c>
       <c r="AF85" t="n">
-        <v>-2.276434399991846</v>
+        <v>-2.276434399991845</v>
       </c>
       <c r="AG85" t="n">
-        <v>-1.665918785776433</v>
+        <v>-1.672931622900594</v>
       </c>
       <c r="AH85" t="n">
-        <v>-1.674569452196036</v>
+        <v>-1.674790270540752</v>
       </c>
       <c r="AI85" t="n">
-        <v>-4.856563796903023</v>
+        <v>-4.860635592737119</v>
       </c>
       <c r="AJ85" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         </is>
       </c>
       <c r="AN85" t="n">
-        <v>-20985.21216641796</v>
+        <v>-16953.89694746707</v>
       </c>
     </row>
     <row r="86">
@@ -11772,28 +11772,28 @@
         <v>-0.2359123578145411</v>
       </c>
       <c r="P86" t="n">
-        <v>25110</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.6146987211299578</v>
       </c>
       <c r="R86" t="n">
-        <v>-0.6146987211299578</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S86" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.4558205774963551</v>
       </c>
       <c r="T86" t="n">
-        <v>-0.4558205774963551</v>
+        <v>-1.627826574767896</v>
       </c>
       <c r="U86" t="n">
-        <v>-1.627826574767896</v>
+        <v>-1.850192813496044</v>
       </c>
       <c r="V86" t="n">
-        <v>-1.850192813496044</v>
+        <v>-1.566634861860876</v>
       </c>
       <c r="W86" t="n">
-        <v>-1.566634861860876</v>
+        <v>24811</v>
       </c>
       <c r="X86" t="n">
         <v>-1.091268434158781</v>
@@ -11814,7 +11814,7 @@
         <v>-1.276621493642946</v>
       </c>
       <c r="AD86" t="n">
-        <v>-4.15721158838377</v>
+        <v>-4.156962781419722</v>
       </c>
       <c r="AE86" t="n">
         <v>-1.566634861860878</v>
@@ -11823,13 +11823,13 @@
         <v>-3.605221353870503</v>
       </c>
       <c r="AG86" t="n">
-        <v>-2.364994907164315</v>
+        <v>-2.368444474002873</v>
       </c>
       <c r="AH86" t="n">
-        <v>-1.66983904656012</v>
+        <v>-1.670058203041894</v>
       </c>
       <c r="AI86" t="n">
-        <v>-6.047514764443278</v>
+        <v>-6.049821980238614</v>
       </c>
       <c r="AJ86" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="AN86" t="n">
-        <v>-151853.0957351707</v>
+        <v>-150102.1331517002</v>
       </c>
     </row>
     <row r="87">
@@ -11904,28 +11904,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P87" t="n">
-        <v>13809</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q87" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.4980644692379907</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.4980644692379907</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S87" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.2280592429531729</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.2280592429531729</v>
+        <v>-1.519216883746561</v>
       </c>
       <c r="U87" t="n">
-        <v>-1.519216883746561</v>
+        <v>-0.5193321792181802</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.5193321792181802</v>
+        <v>-1.72005903024165</v>
       </c>
       <c r="W87" t="n">
-        <v>-1.72005903024165</v>
+        <v>12035</v>
       </c>
       <c r="X87" t="n">
         <v>-0.9957011704689038</v>
@@ -11946,22 +11946,22 @@
         <v>-1.079639807005221</v>
       </c>
       <c r="AD87" t="n">
-        <v>-3.487919299794129</v>
+        <v>-3.486959855108734</v>
       </c>
       <c r="AE87" t="n">
         <v>-1.720059030241652</v>
       </c>
       <c r="AF87" t="n">
-        <v>-2.252355192786055</v>
+        <v>-2.252355192786054</v>
       </c>
       <c r="AG87" t="n">
-        <v>-2.047233625557086</v>
+        <v>-2.045799495980501</v>
       </c>
       <c r="AH87" t="n">
-        <v>-1.544867186154898</v>
+        <v>-1.545096035475445</v>
       </c>
       <c r="AI87" t="n">
-        <v>-4.888587387328767</v>
+        <v>-4.888244747046736</v>
       </c>
       <c r="AJ87" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         </is>
       </c>
       <c r="AN87" t="n">
-        <v>-67506.50323162293</v>
+        <v>-58830.02553070747</v>
       </c>
     </row>
     <row r="88">
@@ -12036,28 +12036,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P88" t="n">
-        <v>28321</v>
+        <v>-0.7928489523649946</v>
       </c>
       <c r="Q88" t="n">
-        <v>-0.7928489523649946</v>
+        <v>-0.3814302173460234</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.3814302173460234</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S88" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.08694624220359268</v>
       </c>
       <c r="T88" t="n">
-        <v>-0.08694624220359268</v>
+        <v>-0.2577291121559557</v>
       </c>
       <c r="U88" t="n">
-        <v>-0.2577291121559557</v>
+        <v>-0.2697958102910808</v>
       </c>
       <c r="V88" t="n">
-        <v>-0.2697958102910808</v>
+        <v>0.4067173728297585</v>
       </c>
       <c r="W88" t="n">
-        <v>0.4067173728297585</v>
+        <v>28296</v>
       </c>
       <c r="X88" t="n">
         <v>-0.6076056777985905</v>
@@ -12078,22 +12078,22 @@
         <v>-0.2514662874446721</v>
       </c>
       <c r="AD88" t="n">
-        <v>-0.992204832980866</v>
+        <v>-0.9913098655561329</v>
       </c>
       <c r="AE88" t="n">
         <v>0.4067173728297567</v>
       </c>
       <c r="AF88" t="n">
-        <v>-0.635272468935127</v>
+        <v>-0.6352724689351271</v>
       </c>
       <c r="AG88" t="n">
-        <v>0.3349440840449069</v>
+        <v>0.335132410673353</v>
       </c>
       <c r="AH88" t="n">
-        <v>-1.249348680791211</v>
+        <v>-1.249419492295601</v>
       </c>
       <c r="AI88" t="n">
-        <v>-1.286761947585136</v>
+        <v>-1.284984245636883</v>
       </c>
       <c r="AJ88" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="AN88" t="n">
-        <v>-36442.38511755865</v>
+        <v>-36359.91421454126</v>
       </c>
     </row>
     <row r="89">
@@ -12168,28 +12168,28 @@
         <v>0.5723513609959265</v>
       </c>
       <c r="P89" t="n">
-        <v>9632</v>
+        <v>-0.8975159253060134</v>
       </c>
       <c r="Q89" t="n">
-        <v>-0.8975159253060134</v>
+        <v>-0.4689059062649988</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.4689059062649988</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S89" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.2429132430320761</v>
       </c>
       <c r="T89" t="n">
-        <v>-0.2429132430320761</v>
+        <v>-1.373769201997918</v>
       </c>
       <c r="U89" t="n">
-        <v>-1.373769201997918</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V89" t="n">
-        <v>-0.7688685481452797</v>
+        <v>0.2638741815786949</v>
       </c>
       <c r="W89" t="n">
-        <v>0.2638741815786949</v>
+        <v>9458</v>
       </c>
       <c r="X89" t="n">
         <v>0.03617676852099835</v>
@@ -12210,22 +12210,22 @@
         <v>-0.7423324290732065</v>
       </c>
       <c r="AD89" t="n">
-        <v>-3.766714482540872</v>
+        <v>-3.770511377449715</v>
       </c>
       <c r="AE89" t="n">
         <v>0.263874181578693</v>
       </c>
       <c r="AF89" t="n">
-        <v>-2.67733567505409</v>
+        <v>-2.677335675054091</v>
       </c>
       <c r="AG89" t="n">
-        <v>-3.116953187713022</v>
+        <v>-3.129123855049993</v>
       </c>
       <c r="AH89" t="n">
-        <v>-1.48152517697341</v>
+        <v>-1.481761301968544</v>
       </c>
       <c r="AI89" t="n">
-        <v>-5.321627413574226</v>
+        <v>-5.329800019795678</v>
       </c>
       <c r="AJ89" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         </is>
       </c>
       <c r="AN89" t="n">
-        <v>-51257.91524754695</v>
+        <v>-50409.24858722752</v>
       </c>
     </row>
     <row r="90">
@@ -12300,28 +12300,28 @@
         <v>-0.4579169970245487</v>
       </c>
       <c r="P90" t="n">
-        <v>45381</v>
+        <v>-0.7928489523649946</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.7928489523649946</v>
+        <v>-0.7604915359949169</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.7604915359949169</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S90" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.6662522452808169</v>
       </c>
       <c r="T90" t="n">
-        <v>-0.6662522452808169</v>
+        <v>-0.5743651037550344</v>
       </c>
       <c r="U90" t="n">
-        <v>-0.5743651037550344</v>
+        <v>-0.5193321792181802</v>
       </c>
       <c r="V90" t="n">
-        <v>-0.5193321792181802</v>
+        <v>-0.8259664627812808</v>
       </c>
       <c r="W90" t="n">
-        <v>-0.8259664627812808</v>
+        <v>42649</v>
       </c>
       <c r="X90" t="n">
         <v>-0.5504261361598721</v>
@@ -12342,7 +12342,7 @@
         <v>-0.6165164534008442</v>
       </c>
       <c r="AD90" t="n">
-        <v>-1.638576068053325</v>
+        <v>-1.638555317696106</v>
       </c>
       <c r="AE90" t="n">
         <v>-0.8259664627812826</v>
@@ -12351,13 +12351,13 @@
         <v>-1.016777325194627</v>
       </c>
       <c r="AG90" t="n">
-        <v>-0.03922825797692812</v>
+        <v>-0.04022588410604395</v>
       </c>
       <c r="AH90" t="n">
-        <v>-1.800911411711783</v>
+        <v>-1.801120954890604</v>
       </c>
       <c r="AI90" t="n">
-        <v>-2.471634638567426</v>
+        <v>-2.471155286241029</v>
       </c>
       <c r="AJ90" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="AN90" t="n">
-        <v>-112165.2515328284</v>
+        <v>-105392.3018028936</v>
       </c>
     </row>
     <row r="91">
@@ -12432,28 +12432,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P91" t="n">
-        <v>43909</v>
+        <v>-0.7928489523649946</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.7928489523649946</v>
+        <v>-0.585540158156966</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.585540158156966</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S91" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.5523715780092259</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.5523715780092259</v>
+        <v>-1.363656812386499</v>
       </c>
       <c r="U91" t="n">
-        <v>-1.363656812386499</v>
+        <v>-1.850192813496044</v>
       </c>
       <c r="V91" t="n">
-        <v>-1.850192813496044</v>
+        <v>-1.93167857283582</v>
       </c>
       <c r="W91" t="n">
-        <v>-1.93167857283582</v>
+        <v>42514</v>
       </c>
       <c r="X91" t="n">
         <v>-1.150183730153667</v>
@@ -12474,7 +12474,7 @@
         <v>-1.332824857846963</v>
       </c>
       <c r="AD91" t="n">
-        <v>-3.990842267190421</v>
+        <v>-3.990560377318208</v>
       </c>
       <c r="AE91" t="n">
         <v>-1.931678572835822</v>
@@ -12483,13 +12483,13 @@
         <v>-3.099045837474578</v>
       </c>
       <c r="AG91" t="n">
-        <v>-1.787281770480449</v>
+        <v>-1.79097190337556</v>
       </c>
       <c r="AH91" t="n">
-        <v>-1.649536495338948</v>
+        <v>-1.649758191261006</v>
       </c>
       <c r="AI91" t="n">
-        <v>-5.52856227255737</v>
+        <v>-5.530604081731394</v>
       </c>
       <c r="AJ91" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="AN91" t="n">
-        <v>-242753.6408257216</v>
+        <v>-235128.1019307285</v>
       </c>
     </row>
     <row r="92">
@@ -12564,28 +12564,28 @@
         <v>0.2393975663971032</v>
       </c>
       <c r="P92" t="n">
-        <v>29690</v>
+        <v>-1.002182898247032</v>
       </c>
       <c r="Q92" t="n">
-        <v>-1.002182898247032</v>
+        <v>-0.745912254508421</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.745912254508421</v>
+        <v>-1.47633371070424</v>
       </c>
       <c r="S92" t="n">
-        <v>-1.47633371070424</v>
+        <v>-0.6439712451624622</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.6439712451624622</v>
+        <v>-1.424134155452188</v>
       </c>
       <c r="U92" t="n">
-        <v>-1.424134155452188</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V92" t="n">
-        <v>-0.7688685481452797</v>
+        <v>-0.8788713484298233</v>
       </c>
       <c r="W92" t="n">
-        <v>-0.8788713484298233</v>
+        <v>25948</v>
       </c>
       <c r="X92" t="n">
         <v>-1.033436450474571</v>
@@ -12606,22 +12606,22 @@
         <v>-0.905050987122541</v>
       </c>
       <c r="AD92" t="n">
-        <v>-3.53958877259045</v>
+        <v>-3.53915350791837</v>
       </c>
       <c r="AE92" t="n">
         <v>-0.8788713484298251</v>
       </c>
       <c r="AF92" t="n">
-        <v>-3.035742338126262</v>
+        <v>-3.035742338126263</v>
       </c>
       <c r="AG92" t="n">
-        <v>-0.4961400605306893</v>
+        <v>-0.4957267123180504</v>
       </c>
       <c r="AH92" t="n">
-        <v>-1.893432891226089</v>
+        <v>-1.893629765288839</v>
       </c>
       <c r="AI92" t="n">
-        <v>-4.666033899479763</v>
+        <v>-4.664893847022034</v>
       </c>
       <c r="AJ92" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         </is>
       </c>
       <c r="AN92" t="n">
-        <v>-138534.5464755542</v>
+        <v>-121044.6655425277</v>
       </c>
     </row>
     <row r="93">
@@ -12696,28 +12696,28 @@
         <v>0.3176978079855607</v>
       </c>
       <c r="P93" t="n">
-        <v>76978</v>
+        <v>0.8818226146913047</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.8818226146913047</v>
+        <v>0.6682780496816814</v>
       </c>
       <c r="R93" t="n">
-        <v>0.6682780496816814</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S93" t="n">
-        <v>1.072448498915967</v>
+        <v>0.4453220939571048</v>
       </c>
       <c r="T93" t="n">
-        <v>0.4453220939571048</v>
+        <v>-0.01142019376355758</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.01142019376355758</v>
+        <v>0.2292769275631181</v>
       </c>
       <c r="V93" t="n">
-        <v>0.2292769275631181</v>
+        <v>-0.2043340564109075</v>
       </c>
       <c r="W93" t="n">
-        <v>-0.2043340564109075</v>
+        <v>78913</v>
       </c>
       <c r="X93" t="n">
         <v>-0.1563892591378986</v>
@@ -12738,22 +12738,22 @@
         <v>0.07159805867142457</v>
       </c>
       <c r="AD93" t="n">
-        <v>-0.5119638678157152</v>
+        <v>-0.5121563075355247</v>
       </c>
       <c r="AE93" t="n">
         <v>-0.2043340564109093</v>
       </c>
       <c r="AF93" t="n">
-        <v>0.03727920546474764</v>
+        <v>0.03727920546474754</v>
       </c>
       <c r="AG93" t="n">
-        <v>1.094598380948705</v>
+        <v>1.091720044806859</v>
       </c>
       <c r="AH93" t="n">
-        <v>1.41249491622304</v>
+        <v>1.412206659092779</v>
       </c>
       <c r="AI93" t="n">
-        <v>0.9481801832463692</v>
+        <v>0.9467699309582683</v>
       </c>
       <c r="AJ93" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         </is>
       </c>
       <c r="AN93" t="n">
-        <v>72989.01414593901</v>
+        <v>74712.45556170982</v>
       </c>
     </row>
     <row r="94">
@@ -12828,28 +12828,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P94" t="n">
-        <v>39842</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.7703330200871527</v>
       </c>
       <c r="R94" t="n">
-        <v>0.7703330200871527</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S94" t="n">
-        <v>1.072448498915967</v>
+        <v>0.5418730944699756</v>
       </c>
       <c r="T94" t="n">
-        <v>0.5418730944699756</v>
+        <v>-0.9509531194789489</v>
       </c>
       <c r="U94" t="n">
-        <v>-0.9509531194789489</v>
+        <v>-0.4361533895758138</v>
       </c>
       <c r="V94" t="n">
-        <v>-0.4361533895758138</v>
+        <v>0.05489988326695154</v>
       </c>
       <c r="W94" t="n">
-        <v>0.05489988326695154</v>
+        <v>39584</v>
       </c>
       <c r="X94" t="n">
         <v>-0.2897826144225001</v>
@@ -12870,7 +12870,7 @@
         <v>-0.2471076384365588</v>
       </c>
       <c r="AD94" t="n">
-        <v>-1.01068678662695</v>
+        <v>-1.011261580550838</v>
       </c>
       <c r="AE94" t="n">
         <v>0.05489988326694972</v>
@@ -12879,13 +12879,13 @@
         <v>-1.109503474601784</v>
       </c>
       <c r="AG94" t="n">
-        <v>-2.23933498851971</v>
+        <v>-2.24295990318728</v>
       </c>
       <c r="AH94" t="n">
-        <v>1.580181858216575</v>
+        <v>1.579906432851206</v>
       </c>
       <c r="AI94" t="n">
-        <v>-1.134953177010769</v>
+        <v>-1.139459037125421</v>
       </c>
       <c r="AJ94" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="AN94" t="n">
-        <v>-45218.80447846307</v>
+        <v>-45104.34652557265</v>
       </c>
     </row>
     <row r="95">
@@ -12960,28 +12960,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P95" t="n">
-        <v>31959</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.091156560573342</v>
+        <v>0.9452843979251035</v>
       </c>
       <c r="R95" t="n">
-        <v>0.9452843979251035</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S95" t="n">
-        <v>1.072448498915967</v>
+        <v>0.6111917615048571</v>
       </c>
       <c r="T95" t="n">
-        <v>0.6111917615048571</v>
+        <v>-1.01622399787992</v>
       </c>
       <c r="U95" t="n">
-        <v>-1.01622399787992</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V95" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.3445320033795443</v>
       </c>
       <c r="W95" t="n">
-        <v>-0.3445320033795443</v>
+        <v>32431</v>
       </c>
       <c r="X95" t="n">
         <v>-0.4388882107088088</v>
@@ -13002,7 +13002,7 @@
         <v>-0.238266123675061</v>
       </c>
       <c r="AD95" t="n">
-        <v>-0.5485374532364936</v>
+        <v>-0.5481564457498902</v>
       </c>
       <c r="AE95" t="n">
         <v>-0.3445320033795461</v>
@@ -13011,13 +13011,13 @@
         <v>-1.208294496283426</v>
       </c>
       <c r="AG95" t="n">
-        <v>-1.399250814328734</v>
+        <v>-1.398765183799486</v>
       </c>
       <c r="AH95" t="n">
-        <v>1.750531406727639</v>
+        <v>1.750187815275282</v>
       </c>
       <c r="AI95" t="n">
-        <v>-0.5529945396990779</v>
+        <v>-0.5550312020600778</v>
       </c>
       <c r="AJ95" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="AN95" t="n">
-        <v>-17673.15249424283</v>
+        <v>-18000.21691401038</v>
       </c>
     </row>
     <row r="96">
@@ -13092,28 +13092,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P96" t="n">
-        <v>7615</v>
+        <v>0.3584877499862111</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.3584877499862111</v>
+        <v>0.4787473903572347</v>
       </c>
       <c r="R96" t="n">
-        <v>0.4787473903572347</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S96" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.4799814274745456</v>
       </c>
       <c r="T96" t="n">
-        <v>0.4799814274745456</v>
+        <v>-1.250056591427062</v>
       </c>
       <c r="U96" t="n">
-        <v>-1.250056591427062</v>
+        <v>-0.8520473377876462</v>
       </c>
       <c r="V96" t="n">
-        <v>-0.8520473377876462</v>
+        <v>-1.077264669611856</v>
       </c>
       <c r="W96" t="n">
-        <v>-1.077264669611856</v>
+        <v>7620</v>
       </c>
       <c r="X96" t="n">
         <v>0.1533144699428392</v>
@@ -13134,7 +13134,7 @@
         <v>-0.4317875899606885</v>
       </c>
       <c r="AD96" t="n">
-        <v>-0.4815349581903343</v>
+        <v>-0.4838291284347598</v>
       </c>
       <c r="AE96" t="n">
         <v>-1.077264669611858</v>
@@ -13143,13 +13143,13 @@
         <v>-1.610299540028719</v>
       </c>
       <c r="AG96" t="n">
-        <v>-0.6935547789224595</v>
+        <v>-0.6930805563855095</v>
       </c>
       <c r="AH96" t="n">
-        <v>0.552136936010135</v>
+        <v>0.5517901200929604</v>
       </c>
       <c r="AI96" t="n">
-        <v>-1.178127225394256</v>
+        <v>-1.180697359131818</v>
       </c>
       <c r="AJ96" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         </is>
       </c>
       <c r="AN96" t="n">
-        <v>-8971.438821377256</v>
+        <v>-8996.913876584449</v>
       </c>
     </row>
     <row r="97">
@@ -13224,28 +13224,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P97" t="n">
-        <v>18523</v>
+        <v>0.7771556417502861</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.7771556417502861</v>
+        <v>0.5953816422492019</v>
       </c>
       <c r="R97" t="n">
-        <v>0.5953816422492019</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.48493276083418</v>
       </c>
       <c r="T97" t="n">
-        <v>0.48493276083418</v>
+        <v>-1.13849198136343</v>
       </c>
       <c r="U97" t="n">
-        <v>-1.13849198136343</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V97" t="n">
-        <v>-0.1866170206487143</v>
+        <v>0.8458279237126628</v>
       </c>
       <c r="W97" t="n">
-        <v>0.8458279237126628</v>
+        <v>19332</v>
       </c>
       <c r="X97" t="n">
         <v>0.04942881617091436</v>
@@ -13266,7 +13266,7 @@
         <v>-0.006127466425970641</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.3542924289413037</v>
+        <v>0.3530327917554138</v>
       </c>
       <c r="AE97" t="n">
         <v>0.845827923712661</v>
@@ -13275,13 +13275,13 @@
         <v>-1.283435653512089</v>
       </c>
       <c r="AG97" t="n">
-        <v>-1.750943050126466</v>
+        <v>-1.750125938291184</v>
       </c>
       <c r="AH97" t="n">
-        <v>0.8625527138075049</v>
+        <v>0.8622612209257486</v>
       </c>
       <c r="AI97" t="n">
-        <v>-0.5446167464917671</v>
+        <v>-0.5469732104992897</v>
       </c>
       <c r="AJ97" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         </is>
       </c>
       <c r="AN97" t="n">
-        <v>-10087.935995267</v>
+        <v>-10574.08610537227</v>
       </c>
     </row>
     <row r="98">
@@ -13356,28 +13356,28 @@
         <v>-0.1642127258922395</v>
       </c>
       <c r="P98" t="n">
-        <v>23320</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.091156560573342</v>
+        <v>0.8723879904926239</v>
       </c>
       <c r="R98" t="n">
-        <v>0.8723879904926239</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S98" t="n">
-        <v>1.072448498915967</v>
+        <v>0.5616784279085131</v>
       </c>
       <c r="T98" t="n">
-        <v>0.5616784279085131</v>
+        <v>-0.7764159013805766</v>
       </c>
       <c r="U98" t="n">
-        <v>-0.7764159013805766</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V98" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.7175114472017688</v>
       </c>
       <c r="W98" t="n">
-        <v>-0.7175114472017688</v>
+        <v>24277</v>
       </c>
       <c r="X98" t="n">
         <v>0.2519012116029449</v>
@@ -13398,22 +13398,22 @@
         <v>0.00837965807566159</v>
       </c>
       <c r="AD98" t="n">
-        <v>0.5177223005788862</v>
+        <v>0.5159336186312605</v>
       </c>
       <c r="AE98" t="n">
         <v>-0.7175114472017706</v>
       </c>
       <c r="AF98" t="n">
-        <v>-0.4878726920247903</v>
+        <v>-0.4878726920247901</v>
       </c>
       <c r="AG98" t="n">
-        <v>-0.7824965965637695</v>
+        <v>-0.7765355199545692</v>
       </c>
       <c r="AH98" t="n">
-        <v>1.725573158840303</v>
+        <v>1.725384111772581</v>
       </c>
       <c r="AI98" t="n">
-        <v>0.5309200106139499</v>
+        <v>0.53035678798983</v>
       </c>
       <c r="AJ98" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         </is>
       </c>
       <c r="AN98" t="n">
-        <v>12381.05464751731</v>
+        <v>12875.4717420291</v>
       </c>
     </row>
     <row r="99">
@@ -13488,28 +13488,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P99" t="n">
-        <v>6620</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.003601523871087</v>
       </c>
       <c r="R99" t="n">
-        <v>1.003601523871087</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S99" t="n">
-        <v>1.072448498915967</v>
+        <v>0.6755590951801042</v>
       </c>
       <c r="T99" t="n">
-        <v>0.6755590951801042</v>
+        <v>-1.625331309798845</v>
       </c>
       <c r="U99" t="n">
-        <v>-1.625331309798845</v>
+        <v>-0.5193321792181802</v>
       </c>
       <c r="V99" t="n">
-        <v>-0.5193321792181802</v>
+        <v>-2.984485797241815</v>
       </c>
       <c r="W99" t="n">
-        <v>-2.984485797241815</v>
+        <v>6845</v>
       </c>
       <c r="X99" t="n">
         <v>-0.2574538350422824</v>
@@ -13530,22 +13530,22 @@
         <v>-0.9871100759792775</v>
       </c>
       <c r="AD99" t="n">
-        <v>-0.1794224879869595</v>
+        <v>-0.1801380052684405</v>
       </c>
       <c r="AE99" t="n">
         <v>-2.984485797241816</v>
       </c>
       <c r="AF99" t="n">
-        <v>-3.43091367980964</v>
+        <v>-3.430913679809641</v>
       </c>
       <c r="AG99" t="n">
-        <v>-2.62606561690649</v>
+        <v>-2.622618505261981</v>
       </c>
       <c r="AH99" t="n">
-        <v>1.769119223572711</v>
+        <v>1.768815953612809</v>
       </c>
       <c r="AI99" t="n">
-        <v>-2.346792854584569</v>
+        <v>-2.35045527399438</v>
       </c>
       <c r="AJ99" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         </is>
       </c>
       <c r="AN99" t="n">
-        <v>-15535.76869734985</v>
+        <v>-16088.86635049153</v>
       </c>
     </row>
     <row r="100">
@@ -13620,28 +13620,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P100" t="n">
-        <v>11786</v>
+        <v>0.3584877499862111</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.3584877499862111</v>
+        <v>0.4641681088707388</v>
       </c>
       <c r="R100" t="n">
-        <v>0.4641681088707388</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.4403707605974704</v>
       </c>
       <c r="T100" t="n">
-        <v>0.4403707605974704</v>
+        <v>-0.9978378349500692</v>
       </c>
       <c r="U100" t="n">
-        <v>-0.9978378349500692</v>
+        <v>-0.2697958102910808</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.2697958102910808</v>
+        <v>-0.1223314836556639</v>
       </c>
       <c r="W100" t="n">
-        <v>-0.1223314836556639</v>
+        <v>11989</v>
       </c>
       <c r="X100" t="n">
         <v>0.01836608055273862</v>
@@ -13662,22 +13662,22 @@
         <v>-0.07048152550709597</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.4540987420467711</v>
+        <v>0.4530175240019321</v>
       </c>
       <c r="AE100" t="n">
         <v>-0.1223314836556657</v>
       </c>
       <c r="AF100" t="n">
-        <v>-0.8608965429373097</v>
+        <v>-0.8608965429373096</v>
       </c>
       <c r="AG100" t="n">
-        <v>-0.643278926163399</v>
+        <v>-0.6358405005152044</v>
       </c>
       <c r="AH100" t="n">
-        <v>0.5369865037641393</v>
+        <v>0.5366932437273054</v>
       </c>
       <c r="AI100" t="n">
-        <v>-0.1629579666566188</v>
+        <v>-0.1616389570907618</v>
       </c>
       <c r="AJ100" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         </is>
       </c>
       <c r="AN100" t="n">
-        <v>-1920.622595014909</v>
+        <v>-1937.889456561143</v>
       </c>
     </row>
     <row r="101">
@@ -13752,28 +13752,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P101" t="n">
-        <v>24602</v>
+        <v>0.2538207770451925</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.2538207770451925</v>
+        <v>0.5079059533302265</v>
       </c>
       <c r="R101" t="n">
-        <v>0.5079059533302265</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.4255167605185672</v>
       </c>
       <c r="T101" t="n">
-        <v>0.4255167605185672</v>
+        <v>-0.6205275056824819</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.6205275056824819</v>
+        <v>0.3956345068478511</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3956345068478511</v>
+        <v>0.6262726482712121</v>
       </c>
       <c r="W101" t="n">
-        <v>0.6262726482712121</v>
+        <v>26229</v>
       </c>
       <c r="X101" t="n">
         <v>0.138742708430079</v>
@@ -13794,22 +13794,22 @@
         <v>0.05242833776371499</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.7407737607102625</v>
+        <v>0.7396786178803653</v>
       </c>
       <c r="AE101" t="n">
         <v>0.6262726482712103</v>
       </c>
       <c r="AF101" t="n">
-        <v>-0.1578703450972096</v>
+        <v>-0.1578703450972095</v>
       </c>
       <c r="AG101" t="n">
-        <v>-1.930793053146442</v>
+        <v>-1.930626030542332</v>
       </c>
       <c r="AH101" t="n">
-        <v>0.4984664613336136</v>
+        <v>0.4981890209803613</v>
       </c>
       <c r="AI101" t="n">
-        <v>-0.1298556088221263</v>
+        <v>-0.1322753084369252</v>
       </c>
       <c r="AJ101" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="AN101" t="n">
-        <v>-3194.707688241951</v>
+        <v>-3469.449064992111</v>
       </c>
     </row>
     <row r="102">
@@ -13884,28 +13884,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P102" t="n">
-        <v>21403</v>
+        <v>0.7771556417502861</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.7771556417502861</v>
+        <v>0.5662230792762101</v>
       </c>
       <c r="R102" t="n">
-        <v>0.5662230792762101</v>
+        <v>0.4352529465109155</v>
       </c>
       <c r="S102" t="n">
-        <v>0.4352529465109155</v>
+        <v>0.4255167605185672</v>
       </c>
       <c r="T102" t="n">
-        <v>0.4255167605185672</v>
+        <v>-0.7016236171766466</v>
       </c>
       <c r="U102" t="n">
-        <v>-0.7016236171766466</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V102" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.7122209586369153</v>
       </c>
       <c r="W102" t="n">
-        <v>-0.7122209586369153</v>
+        <v>21224</v>
       </c>
       <c r="X102" t="n">
         <v>-0.2106699247844559</v>
@@ -13926,7 +13926,7 @@
         <v>-0.2342864363814048</v>
       </c>
       <c r="AD102" t="n">
-        <v>-0.3909770808059645</v>
+        <v>-0.3913214595828732</v>
       </c>
       <c r="AE102" t="n">
         <v>-0.712220958636917</v>
@@ -13935,13 +13935,13 @@
         <v>-1.276916766398503</v>
       </c>
       <c r="AG102" t="n">
-        <v>-0.5456499640928453</v>
+        <v>-0.538172007836058</v>
       </c>
       <c r="AH102" t="n">
-        <v>1.036184818552602</v>
+        <v>1.035833450128243</v>
       </c>
       <c r="AI102" t="n">
-        <v>-0.5878654314553186</v>
+        <v>-0.5864277656387611</v>
       </c>
       <c r="AJ102" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="AN102" t="n">
-        <v>-12582.08382943818</v>
+        <v>-12446.34289791707</v>
       </c>
     </row>
     <row r="103">
@@ -14016,28 +14016,28 @@
         <v>-0.1344226163997128</v>
       </c>
       <c r="P103" t="n">
-        <v>22241</v>
+        <v>0.5678216958682486</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.5678216958682486</v>
+        <v>0.4933266718437306</v>
       </c>
       <c r="R103" t="n">
-        <v>0.4933266718437306</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.4626517607158252</v>
       </c>
       <c r="T103" t="n">
-        <v>0.4626517607158252</v>
+        <v>-0.8545570938324438</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.8545570938324438</v>
+        <v>0.1460981379207516</v>
       </c>
       <c r="V103" t="n">
-        <v>0.1460981379207516</v>
+        <v>-1.296819945053307</v>
       </c>
       <c r="W103" t="n">
-        <v>-1.296819945053307</v>
+        <v>23044</v>
       </c>
       <c r="X103" t="n">
         <v>0.3044339959300467</v>
@@ -14058,7 +14058,7 @@
         <v>-0.2751149643435479</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.6322650791411661</v>
+        <v>0.6304786114613096</v>
       </c>
       <c r="AE103" t="n">
         <v>-1.296819945053309</v>
@@ -14067,13 +14067,13 @@
         <v>-0.6032175229853037</v>
       </c>
       <c r="AG103" t="n">
-        <v>-0.6657999816761104</v>
+        <v>-0.6661221649249726</v>
       </c>
       <c r="AH103" t="n">
-        <v>0.6624969542600603</v>
+        <v>0.6621362570623683</v>
       </c>
       <c r="AI103" t="n">
-        <v>-0.08797238494343951</v>
+        <v>-0.09085277033286798</v>
       </c>
       <c r="AJ103" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="AN103" t="n">
-        <v>-1956.593813527038</v>
+        <v>-2093.61123955061</v>
       </c>
     </row>
     <row r="104">
@@ -14148,28 +14148,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P104" t="n">
-        <v>5048</v>
+        <v>0.7771556417502861</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.7771556417502861</v>
+        <v>0.5953816422492019</v>
       </c>
       <c r="R104" t="n">
-        <v>0.5953816422492019</v>
+        <v>-0.2019426058941365</v>
       </c>
       <c r="S104" t="n">
-        <v>-0.2019426058941365</v>
+        <v>0.4750300941149112</v>
       </c>
       <c r="T104" t="n">
-        <v>0.4750300941149112</v>
+        <v>-0.9351278863857556</v>
       </c>
       <c r="U104" t="n">
-        <v>-0.9351278863857556</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V104" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.8868070812771067</v>
       </c>
       <c r="W104" t="n">
-        <v>-0.8868070812771067</v>
+        <v>5107</v>
       </c>
       <c r="X104" t="n">
         <v>0.3667515754688375</v>
@@ -14190,22 +14190,22 @@
         <v>-0.1691121438443429</v>
       </c>
       <c r="AD104" t="n">
-        <v>0.05054117596669061</v>
+        <v>0.0480071185818341</v>
       </c>
       <c r="AE104" t="n">
         <v>-0.8868070812771085</v>
       </c>
       <c r="AF104" t="n">
-        <v>-0.3561928959396574</v>
+        <v>-0.356192895939657</v>
       </c>
       <c r="AG104" t="n">
-        <v>-0.3936455429985787</v>
+        <v>-0.3911424724095236</v>
       </c>
       <c r="AH104" t="n">
-        <v>0.834197944709631</v>
+        <v>0.8338188686045716</v>
       </c>
       <c r="AI104" t="n">
-        <v>-0.001844490570883039</v>
+        <v>-0.003471231814973996</v>
       </c>
       <c r="AJ104" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="AN104" t="n">
-        <v>-9.310988401817584</v>
+        <v>-17.7275808790722</v>
       </c>
     </row>
     <row r="105">
@@ -14280,28 +14280,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P105" t="n">
-        <v>22068</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.9864895876323234</v>
+        <v>0.726595175627665</v>
       </c>
       <c r="R105" t="n">
-        <v>0.726595175627665</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S105" t="n">
-        <v>1.072448498915967</v>
+        <v>0.5616784279085131</v>
       </c>
       <c r="T105" t="n">
-        <v>0.5616784279085131</v>
+        <v>-1.183209756203532</v>
       </c>
       <c r="U105" t="n">
-        <v>-1.183209756203532</v>
+        <v>-1.101583706714746</v>
       </c>
       <c r="V105" t="n">
-        <v>-1.101583706714746</v>
+        <v>0.2638741815786949</v>
       </c>
       <c r="W105" t="n">
-        <v>0.2638741815786949</v>
+        <v>22035</v>
       </c>
       <c r="X105" t="n">
         <v>-0.1270950053242197</v>
@@ -14322,7 +14322,7 @@
         <v>-0.1084779524768566</v>
       </c>
       <c r="AD105" t="n">
-        <v>-0.3120792409204451</v>
+        <v>-0.3131935779830017</v>
       </c>
       <c r="AE105" t="n">
         <v>0.263874181578693</v>
@@ -14331,13 +14331,13 @@
         <v>-1.559658144063196</v>
       </c>
       <c r="AG105" t="n">
-        <v>-1.266455556286387</v>
+        <v>-1.267184792211048</v>
       </c>
       <c r="AH105" t="n">
-        <v>1.696290808429875</v>
+        <v>1.696505296170075</v>
       </c>
       <c r="AI105" t="n">
-        <v>-0.4619846826676096</v>
+        <v>-0.4648324192094619</v>
       </c>
       <c r="AJ105" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         </is>
       </c>
       <c r="AN105" t="n">
-        <v>-10195.07797710881</v>
+        <v>-10242.58235728049</v>
       </c>
     </row>
     <row r="106">
@@ -14412,28 +14412,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P106" t="n">
-        <v>19972</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.091156560573342</v>
+        <v>0.7703330200871527</v>
       </c>
       <c r="R106" t="n">
-        <v>0.7703330200871527</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S106" t="n">
-        <v>1.072448498915967</v>
+        <v>0.4997867609130832</v>
       </c>
       <c r="T106" t="n">
-        <v>0.4997867609130832</v>
+        <v>-0.5059423117089455</v>
       </c>
       <c r="U106" t="n">
-        <v>-0.5059423117089455</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V106" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.1196862393732371</v>
       </c>
       <c r="W106" t="n">
-        <v>-0.1196862393732371</v>
+        <v>20452</v>
       </c>
       <c r="X106" t="n">
         <v>0.01436515395256223</v>
@@ -14454,22 +14454,22 @@
         <v>0.04232925905020848</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.5786856699745736</v>
+        <v>0.5778044701827748</v>
       </c>
       <c r="AE106" t="n">
         <v>-0.1196862393732389</v>
       </c>
       <c r="AF106" t="n">
-        <v>-0.5017499959186871</v>
+        <v>-0.501749995918687</v>
       </c>
       <c r="AG106" t="n">
-        <v>-0.9134878440879382</v>
+        <v>-0.9062838606240524</v>
       </c>
       <c r="AH106" t="n">
-        <v>1.593035521548391</v>
+        <v>1.592675648668142</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.5290907884890759</v>
+        <v>0.5296001396215901</v>
       </c>
       <c r="AJ106" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         </is>
       </c>
       <c r="AN106" t="n">
-        <v>10567.00122770382</v>
+        <v>10831.38205554076</v>
       </c>
     </row>
     <row r="107">
@@ -14532,40 +14532,40 @@
         <v>-2.857874697697107</v>
       </c>
       <c r="L107" t="n">
-        <v>0.6773294378498903</v>
+        <v>0.3760489156586869</v>
       </c>
       <c r="M107" t="n">
         <v>0.7643228521483993</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1807482399321646</v>
+        <v>-0.2920382649848667</v>
       </c>
       <c r="O107" t="n">
         <v>-0.7415942621217906</v>
       </c>
       <c r="P107" t="n">
-        <v>21004</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.411821405492972</v>
       </c>
       <c r="R107" t="n">
-        <v>1.411821405492972</v>
+        <v>2.346839603726071</v>
       </c>
       <c r="S107" t="n">
-        <v>2.346839603726071</v>
+        <v>1.044433430472867</v>
       </c>
       <c r="T107" t="n">
-        <v>1.044433430472867</v>
+        <v>-1.360570563608989</v>
       </c>
       <c r="U107" t="n">
-        <v>-1.360570563608989</v>
+        <v>-0.9352261274300127</v>
       </c>
       <c r="V107" t="n">
-        <v>-0.9352261274300127</v>
+        <v>0.01257597474811634</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01257597474811634</v>
+        <v>19352</v>
       </c>
       <c r="X107" t="n">
         <v>-0.2622688769830966</v>
@@ -14586,7 +14586,7 @@
         <v>-0.2123176595932535</v>
       </c>
       <c r="AD107" t="n">
-        <v>-0.8415459160492048</v>
+        <v>-1.284384263771458</v>
       </c>
       <c r="AE107" t="n">
         <v>0.01257597474811452</v>
@@ -14595,13 +14595,13 @@
         <v>-1.325745891026087</v>
       </c>
       <c r="AG107" t="n">
-        <v>-3.421581120525159</v>
+        <v>-3.423130226567816</v>
       </c>
       <c r="AH107" t="n">
-        <v>2.645692832198036</v>
+        <v>2.645336067703269</v>
       </c>
       <c r="AI107" t="n">
-        <v>-1.078023286408784</v>
+        <v>-1.316514122569848</v>
       </c>
       <c r="AJ107" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         </is>
       </c>
       <c r="AN107" t="n">
-        <v>-22642.8011077301</v>
+        <v>-25477.1812999717</v>
       </c>
     </row>
     <row r="108">
@@ -14664,40 +14664,40 @@
         <v>-2.361322467406334</v>
       </c>
       <c r="L108" t="n">
-        <v>0.4736424716911898</v>
+        <v>0.5579148786219478</v>
       </c>
       <c r="M108" t="n">
         <v>0.2089084284601868</v>
       </c>
       <c r="N108" t="n">
-        <v>-0.1147433256409795</v>
+        <v>-0.7352756133445834</v>
       </c>
       <c r="O108" t="n">
         <v>-0.7415942621217906</v>
       </c>
       <c r="P108" t="n">
-        <v>14318</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.397242124006477</v>
       </c>
       <c r="R108" t="n">
-        <v>1.397242124006477</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S108" t="n">
-        <v>1.709644051321019</v>
+        <v>0.9998714302361571</v>
       </c>
       <c r="T108" t="n">
-        <v>0.9998714302361571</v>
+        <v>-1.25320850507218</v>
       </c>
       <c r="U108" t="n">
-        <v>-1.25320850507218</v>
+        <v>-0.6856897585029132</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.6856897585029132</v>
+        <v>-1.36030580783156</v>
       </c>
       <c r="W108" t="n">
-        <v>-1.36030580783156</v>
+        <v>13725</v>
       </c>
       <c r="X108" t="n">
         <v>-0.3471693995909225</v>
@@ -14718,22 +14718,22 @@
         <v>-0.4483256333534887</v>
       </c>
       <c r="AD108" t="n">
-        <v>-0.819526241551896</v>
+        <v>-1.187919616910229</v>
       </c>
       <c r="AE108" t="n">
         <v>-1.360305807831562</v>
       </c>
       <c r="AF108" t="n">
-        <v>-1.33481612570351</v>
+        <v>-1.334816125703509</v>
       </c>
       <c r="AG108" t="n">
-        <v>-2.704387881368584</v>
+        <v>-2.70254802354175</v>
       </c>
       <c r="AH108" t="n">
-        <v>2.371300240293723</v>
+        <v>2.370922609643733</v>
       </c>
       <c r="AI108" t="n">
-        <v>-1.144510178549893</v>
+        <v>-1.342070612931566</v>
       </c>
       <c r="AJ108" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         </is>
       </c>
       <c r="AN108" t="n">
-        <v>-16387.09673647736</v>
+        <v>-18419.91916248574</v>
       </c>
     </row>
     <row r="109">
@@ -14808,28 +14808,28 @@
         <v>-0.1867554744882463</v>
       </c>
       <c r="P109" t="n">
-        <v>23423</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.061918649817071</v>
       </c>
       <c r="R109" t="n">
-        <v>1.061918649817071</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S109" t="n">
-        <v>1.072448498915967</v>
+        <v>0.7300237621360826</v>
       </c>
       <c r="T109" t="n">
-        <v>0.7300237621360826</v>
+        <v>-1.331546692126867</v>
       </c>
       <c r="U109" t="n">
-        <v>-1.331546692126867</v>
+        <v>-0.1866170206487143</v>
       </c>
       <c r="V109" t="n">
-        <v>-0.1866170206487143</v>
+        <v>-0.2651746749067305</v>
       </c>
       <c r="W109" t="n">
-        <v>-0.2651746749067305</v>
+        <v>21982</v>
       </c>
       <c r="X109" t="n">
         <v>0.1875417059128281</v>
@@ -14850,22 +14850,22 @@
         <v>-0.202713398988462</v>
       </c>
       <c r="AD109" t="n">
-        <v>-0.3290668599964716</v>
+        <v>-0.3313588533169503</v>
       </c>
       <c r="AE109" t="n">
         <v>-0.2651746749067324</v>
       </c>
       <c r="AF109" t="n">
-        <v>-1.860515630373888</v>
+        <v>-1.860515630373889</v>
       </c>
       <c r="AG109" t="n">
-        <v>-2.490977409151886</v>
+        <v>-2.489938070222003</v>
       </c>
       <c r="AH109" t="n">
-        <v>1.836617688073931</v>
+        <v>1.836341206788236</v>
       </c>
       <c r="AI109" t="n">
-        <v>-1.145588925416718</v>
+        <v>-1.149790411100102</v>
       </c>
       <c r="AJ109" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         </is>
       </c>
       <c r="AN109" t="n">
-        <v>-26833.1294000358</v>
+        <v>-25274.69281680244</v>
       </c>
     </row>
     <row r="110">
@@ -14940,28 +14940,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P110" t="n">
-        <v>26586</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.324345716573997</v>
       </c>
       <c r="R110" t="n">
-        <v>1.324345716573997</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S110" t="n">
-        <v>1.709644051321019</v>
+        <v>0.9998714302361571</v>
       </c>
       <c r="T110" t="n">
-        <v>0.9998714302361571</v>
+        <v>-0.8899504574724072</v>
       </c>
       <c r="U110" t="n">
-        <v>-0.8899504574724072</v>
+        <v>-0.02025944136398134</v>
       </c>
       <c r="V110" t="n">
-        <v>-0.02025944136398134</v>
+        <v>-0.3048533391431389</v>
       </c>
       <c r="W110" t="n">
-        <v>-0.3048533391431389</v>
+        <v>25448</v>
       </c>
       <c r="X110" t="n">
         <v>0.03207088561651761</v>
@@ -14982,22 +14982,22 @@
         <v>-0.08835562111173223</v>
       </c>
       <c r="AD110" t="n">
-        <v>0.5391121147003272</v>
+        <v>0.5382271276015629</v>
       </c>
       <c r="AE110" t="n">
         <v>-0.3048533391431407</v>
       </c>
       <c r="AF110" t="n">
-        <v>-0.5749350512993566</v>
+        <v>-0.5749350512993564</v>
       </c>
       <c r="AG110" t="n">
-        <v>-2.143334586023081</v>
+        <v>-2.145269831519673</v>
       </c>
       <c r="AH110" t="n">
-        <v>2.33322502344866</v>
+        <v>2.332849705598529</v>
       </c>
       <c r="AI110" t="n">
-        <v>0.3210462675895543</v>
+        <v>0.3162286815089255</v>
       </c>
       <c r="AJ110" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         </is>
       </c>
       <c r="AN110" t="n">
-        <v>8535.336070135892</v>
+        <v>8047.387487039136</v>
       </c>
     </row>
     <row r="111">
@@ -15072,28 +15072,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P111" t="n">
-        <v>21566</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.236870027655022</v>
       </c>
       <c r="R111" t="n">
-        <v>1.236870027655022</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S111" t="n">
-        <v>1.709644051321019</v>
+        <v>0.8538070961269424</v>
       </c>
       <c r="T111" t="n">
-        <v>0.8538070961269424</v>
+        <v>-1.044919545024009</v>
       </c>
       <c r="U111" t="n">
-        <v>-1.044919545024009</v>
+        <v>0.3124557172054846</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3124557172054846</v>
+        <v>-0.4080178661577971</v>
       </c>
       <c r="W111" t="n">
-        <v>-0.4080178661577971</v>
+        <v>21476</v>
       </c>
       <c r="X111" t="n">
         <v>0.3156677582352629</v>
@@ -15114,22 +15114,22 @@
         <v>-0.002194148956845887</v>
       </c>
       <c r="AD111" t="n">
-        <v>-0.001266758339487001</v>
+        <v>-0.00329879168241376</v>
       </c>
       <c r="AE111" t="n">
         <v>-0.4080178661577989</v>
       </c>
       <c r="AF111" t="n">
-        <v>-0.04984125817874169</v>
+        <v>-0.0498412581787413</v>
       </c>
       <c r="AG111" t="n">
-        <v>-2.094652965527073</v>
+        <v>-2.093695243368308</v>
       </c>
       <c r="AH111" t="n">
-        <v>2.223191296057434</v>
+        <v>2.222875250847145</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.2232732664319556</v>
+        <v>0.2194425993894535</v>
       </c>
       <c r="AJ111" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="AN111" t="n">
-        <v>4815.111263871553</v>
+        <v>4712.749264487904</v>
       </c>
     </row>
     <row r="112">
@@ -15204,28 +15204,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P112" t="n">
-        <v>40595</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.295187153601005</v>
       </c>
       <c r="R112" t="n">
-        <v>1.295187153601005</v>
+        <v>2.346839603726071</v>
       </c>
       <c r="S112" t="n">
-        <v>2.346839603726071</v>
+        <v>1.017201096994877</v>
       </c>
       <c r="T112" t="n">
-        <v>1.017201096994877</v>
+        <v>-1.187149648259929</v>
       </c>
       <c r="U112" t="n">
-        <v>-1.187149648259929</v>
+        <v>-0.5193321792181802</v>
       </c>
       <c r="V112" t="n">
-        <v>-0.5193321792181802</v>
+        <v>-0.7439638900260401</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.7439638900260401</v>
+        <v>39821</v>
       </c>
       <c r="X112" t="n">
         <v>0.0101312651317443</v>
@@ -15246,22 +15246,22 @@
         <v>-0.2823598114048814</v>
       </c>
       <c r="AD112" t="n">
-        <v>-0.194430688211907</v>
+        <v>-0.1952996131410751</v>
       </c>
       <c r="AE112" t="n">
         <v>-0.7439638900260419</v>
       </c>
       <c r="AF112" t="n">
-        <v>-0.8530712993256617</v>
+        <v>-0.8530712993256614</v>
       </c>
       <c r="AG112" t="n">
-        <v>-2.852828028680634</v>
+        <v>-2.85825098512506</v>
       </c>
       <c r="AH112" t="n">
-        <v>2.570425999259163</v>
+        <v>2.570074513988938</v>
       </c>
       <c r="AI112" t="n">
-        <v>-0.4425439077657662</v>
+        <v>-0.4494891333702518</v>
       </c>
       <c r="AJ112" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         </is>
       </c>
       <c r="AN112" t="n">
-        <v>-17965.06993575128</v>
+        <v>-17899.1067799368</v>
       </c>
     </row>
     <row r="113">
@@ -15336,28 +15336,28 @@
         <v>-0.05786027353892488</v>
       </c>
       <c r="P113" t="n">
-        <v>37383</v>
+        <v>0.9864895876323234</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.9864895876323234</v>
+        <v>1.353504279546989</v>
       </c>
       <c r="R113" t="n">
-        <v>1.353504279546989</v>
+        <v>1.072448498915967</v>
       </c>
       <c r="S113" t="n">
-        <v>1.072448498915967</v>
+        <v>0.8983690963636519</v>
       </c>
       <c r="T113" t="n">
-        <v>0.8983690963636519</v>
+        <v>-1.104017925869959</v>
       </c>
       <c r="U113" t="n">
-        <v>-1.104017925869959</v>
+        <v>-0.4361533895758138</v>
       </c>
       <c r="V113" t="n">
-        <v>-0.4361533895758138</v>
+        <v>0.3432315100515086</v>
       </c>
       <c r="W113" t="n">
-        <v>0.3432315100515086</v>
+        <v>35421</v>
       </c>
       <c r="X113" t="n">
         <v>-0.02892254817049744</v>
@@ -15378,7 +15378,7 @@
         <v>-0.1010174877224535</v>
       </c>
       <c r="AD113" t="n">
-        <v>-0.3231512526178485</v>
+        <v>-0.3244201853021351</v>
       </c>
       <c r="AE113" t="n">
         <v>0.3432315100515068</v>
@@ -15387,13 +15387,13 @@
         <v>-1.481907333725906</v>
       </c>
       <c r="AG113" t="n">
-        <v>-2.390425913192475</v>
+        <v>-2.396341428670919</v>
       </c>
       <c r="AH113" t="n">
-        <v>2.149268638261791</v>
+        <v>2.149246187544992</v>
       </c>
       <c r="AI113" t="n">
-        <v>-0.6515436236778473</v>
+        <v>-0.6578741248630986</v>
       </c>
       <c r="AJ113" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         </is>
       </c>
       <c r="AN113" t="n">
-        <v>-24356.65528394897</v>
+        <v>-23302.55937677581</v>
       </c>
     </row>
     <row r="114">
@@ -15468,28 +15468,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P114" t="n">
-        <v>21457</v>
+        <v>1.30049050645538</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.30049050645538</v>
+        <v>1.557614220357931</v>
       </c>
       <c r="R114" t="n">
-        <v>1.557614220357931</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S114" t="n">
-        <v>1.709644051321019</v>
+        <v>1.292000098454586</v>
       </c>
       <c r="T114" t="n">
-        <v>1.292000098454586</v>
+        <v>-1.15438287932423</v>
       </c>
       <c r="U114" t="n">
-        <v>-1.15438287932423</v>
+        <v>-0.7688685481452797</v>
       </c>
       <c r="V114" t="n">
-        <v>-0.7688685481452797</v>
+        <v>0.8511184122775164</v>
       </c>
       <c r="W114" t="n">
-        <v>0.8511184122775164</v>
+        <v>20968</v>
       </c>
       <c r="X114" t="n">
         <v>0.05569092912941442</v>
@@ -15510,7 +15510,7 @@
         <v>0.4814059775684573</v>
       </c>
       <c r="AD114" t="n">
-        <v>-0.1815157905038595</v>
+        <v>-0.1829696556235979</v>
       </c>
       <c r="AE114" t="n">
         <v>0.8511184122775146</v>
@@ -15519,13 +15519,13 @@
         <v>-1.560146403604594</v>
       </c>
       <c r="AG114" t="n">
-        <v>-2.033259844444519</v>
+        <v>-2.029836959646207</v>
       </c>
       <c r="AH114" t="n">
-        <v>4.006388480262332</v>
+        <v>4.010652122216708</v>
       </c>
       <c r="AI114" t="n">
-        <v>0.6347386008305005</v>
+        <v>0.6339269306775044</v>
       </c>
       <c r="AJ114" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         </is>
       </c>
       <c r="AN114" t="n">
-        <v>13619.58615802005</v>
+        <v>13292.17988244591</v>
       </c>
     </row>
     <row r="115">
@@ -15600,28 +15600,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P115" t="n">
-        <v>20409</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.195823533514361</v>
+        <v>1.513876375898444</v>
       </c>
       <c r="R115" t="n">
-        <v>1.513876375898444</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S115" t="n">
-        <v>1.709644051321019</v>
+        <v>1.272194765016049</v>
       </c>
       <c r="T115" t="n">
-        <v>1.272194765016049</v>
+        <v>-1.139608284112742</v>
       </c>
       <c r="U115" t="n">
-        <v>-1.139608284112742</v>
+        <v>-1.184762496357112</v>
       </c>
       <c r="V115" t="n">
-        <v>-1.184762496357112</v>
+        <v>-1.045521738222734</v>
       </c>
       <c r="W115" t="n">
-        <v>-1.045521738222734</v>
+        <v>19901</v>
       </c>
       <c r="X115" t="n">
         <v>0.01861951484533264</v>
@@ -15642,22 +15642,22 @@
         <v>-0.1518536215618733</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.3582179419788897</v>
+        <v>0.3570892364101803</v>
       </c>
       <c r="AE115" t="n">
         <v>-1.045521738222736</v>
       </c>
       <c r="AF115" t="n">
-        <v>-0.8693095229287865</v>
+        <v>-0.8693095229287856</v>
       </c>
       <c r="AG115" t="n">
-        <v>-2.076601969583127</v>
+        <v>-2.071997779014486</v>
       </c>
       <c r="AH115" t="n">
-        <v>2.728083948516165</v>
+        <v>2.727826806374934</v>
       </c>
       <c r="AI115" t="n">
-        <v>0.207779594291901</v>
+        <v>0.2052622998310529</v>
       </c>
       <c r="AJ115" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         </is>
       </c>
       <c r="AN115" t="n">
-        <v>4240.573739903407</v>
+        <v>4084.925028937784</v>
       </c>
     </row>
     <row r="116">
@@ -15732,28 +15732,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P116" t="n">
-        <v>32019</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.091156560573342</v>
+        <v>1.528455657384939</v>
       </c>
       <c r="R116" t="n">
-        <v>1.528455657384939</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S116" t="n">
-        <v>1.709644051321019</v>
+        <v>1.284573098415135</v>
       </c>
       <c r="T116" t="n">
-        <v>1.284573098415135</v>
+        <v>-1.209081714040537</v>
       </c>
       <c r="U116" t="n">
-        <v>-1.209081714040537</v>
+        <v>-0.6025109688605468</v>
       </c>
       <c r="V116" t="n">
-        <v>-0.6025109688605468</v>
+        <v>-1.180429196626515</v>
       </c>
       <c r="W116" t="n">
-        <v>-1.180429196626515</v>
+        <v>31316</v>
       </c>
       <c r="X116" t="n">
         <v>-0.05502032056564706</v>
@@ -15774,7 +15774,7 @@
         <v>-0.4765450963755838</v>
       </c>
       <c r="AD116" t="n">
-        <v>-0.4239434266603649</v>
+        <v>-0.4252946108514688</v>
       </c>
       <c r="AE116" t="n">
         <v>-1.180429196626516</v>
@@ -15783,13 +15783,13 @@
         <v>-2.167722951655379</v>
       </c>
       <c r="AG116" t="n">
-        <v>-2.582539122413104</v>
+        <v>-2.58590579014377</v>
       </c>
       <c r="AH116" t="n">
-        <v>2.645758898912794</v>
+        <v>2.645353388475964</v>
       </c>
       <c r="AI116" t="n">
-        <v>-1.090945074366992</v>
+        <v>-1.097476912367011</v>
       </c>
       <c r="AJ116" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         </is>
       </c>
       <c r="AN116" t="n">
-        <v>-34930.97033615671</v>
+        <v>-34368.58698768533</v>
       </c>
     </row>
     <row r="117">
@@ -15864,28 +15864,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P117" t="n">
-        <v>17624</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.091156560573342</v>
+        <v>1.368083561033485</v>
       </c>
       <c r="R117" t="n">
-        <v>1.368083561033485</v>
+        <v>2.346839603726071</v>
       </c>
       <c r="S117" t="n">
-        <v>2.346839603726071</v>
+        <v>1.106325097468297</v>
       </c>
       <c r="T117" t="n">
-        <v>1.106325097468297</v>
+        <v>-1.975653378480115</v>
       </c>
       <c r="U117" t="n">
-        <v>-1.975653378480115</v>
+        <v>-2.266086761707867</v>
       </c>
       <c r="V117" t="n">
-        <v>-2.266086761707867</v>
+        <v>-0.2387222320824592</v>
       </c>
       <c r="W117" t="n">
-        <v>-0.2387222320824592</v>
+        <v>17850</v>
       </c>
       <c r="X117" t="n">
         <v>-0.1128360890567839</v>
@@ -15906,7 +15906,7 @@
         <v>-0.6670989547088805</v>
       </c>
       <c r="AD117" t="n">
-        <v>-1.482351330235648</v>
+        <v>-1.484560971407877</v>
       </c>
       <c r="AE117" t="n">
         <v>-0.238722232082461</v>
@@ -15915,13 +15915,13 @@
         <v>-4.299688046680176</v>
       </c>
       <c r="AG117" t="n">
-        <v>-4.637336694790061</v>
+        <v>-4.642116316227917</v>
       </c>
       <c r="AH117" t="n">
-        <v>2.711390630497183</v>
+        <v>2.711024453937886</v>
       </c>
       <c r="AI117" t="n">
-        <v>-3.321844419410075</v>
+        <v>-3.330795247135881</v>
       </c>
       <c r="AJ117" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         </is>
       </c>
       <c r="AN117" t="n">
-        <v>-58544.18604768316</v>
+        <v>-59454.69516137547</v>
       </c>
     </row>
     <row r="118">
@@ -15996,28 +15996,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P118" t="n">
-        <v>23424</v>
+        <v>1.091156560573342</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.091156560573342</v>
+        <v>1.513876375898444</v>
       </c>
       <c r="R118" t="n">
-        <v>1.513876375898444</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S118" t="n">
-        <v>1.709644051321019</v>
+        <v>1.230108431459156</v>
       </c>
       <c r="T118" t="n">
-        <v>1.230108431459156</v>
+        <v>-1.667291160199469</v>
       </c>
       <c r="U118" t="n">
-        <v>-1.667291160199469</v>
+        <v>-1.683835234211311</v>
       </c>
       <c r="V118" t="n">
-        <v>-1.683835234211311</v>
+        <v>-1.381467762090977</v>
       </c>
       <c r="W118" t="n">
-        <v>-1.381467762090977</v>
+        <v>22573</v>
       </c>
       <c r="X118" t="n">
         <v>-0.2791945015994556</v>
@@ -16038,7 +16038,7 @@
         <v>-0.6805862614711213</v>
       </c>
       <c r="AD118" t="n">
-        <v>-0.695754135508911</v>
+        <v>-0.6966137985962755</v>
       </c>
       <c r="AE118" t="n">
         <v>-1.381467762090979</v>
@@ -16047,13 +16047,13 @@
         <v>-3.073718128459553</v>
       </c>
       <c r="AG118" t="n">
-        <v>-3.479842535282344</v>
+        <v>-3.480569377673319</v>
       </c>
       <c r="AH118" t="n">
-        <v>2.609450883570237</v>
+        <v>2.609048993182916</v>
       </c>
       <c r="AI118" t="n">
-        <v>-2.091284575935568</v>
+        <v>-2.097243012218693</v>
       </c>
       <c r="AJ118" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         </is>
       </c>
       <c r="AN118" t="n">
-        <v>-48986.24990671474</v>
+        <v>-47341.06651481256</v>
       </c>
     </row>
     <row r="119">
@@ -16128,28 +16128,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P119" t="n">
-        <v>39402</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.195823533514361</v>
+        <v>1.470138531438956</v>
       </c>
       <c r="R119" t="n">
-        <v>1.470138531438956</v>
+        <v>1.709644051321019</v>
       </c>
       <c r="S119" t="n">
-        <v>1.709644051321019</v>
+        <v>1.225157098099522</v>
       </c>
       <c r="T119" t="n">
-        <v>1.225157098099522</v>
+        <v>-0.6290639384713413</v>
       </c>
       <c r="U119" t="n">
-        <v>-0.6290639384713413</v>
+        <v>-0.3529745999334473</v>
       </c>
       <c r="V119" t="n">
-        <v>-0.3529745999334473</v>
+        <v>-1.077264669611856</v>
       </c>
       <c r="W119" t="n">
-        <v>-1.077264669611856</v>
+        <v>37998</v>
       </c>
       <c r="X119" t="n">
         <v>-0.1497597077991769</v>
@@ -16170,22 +16170,22 @@
         <v>-0.1920595640926167</v>
       </c>
       <c r="AD119" t="n">
-        <v>-0.05071633898915379</v>
+        <v>-0.05117567718325128</v>
       </c>
       <c r="AE119" t="n">
         <v>-1.077264669611858</v>
       </c>
       <c r="AF119" t="n">
-        <v>-0.6419909209693641</v>
+        <v>-0.6419909209693639</v>
       </c>
       <c r="AG119" t="n">
-        <v>-1.413969419999093</v>
+        <v>-1.412386811462389</v>
       </c>
       <c r="AH119" t="n">
-        <v>2.639934579901851</v>
+        <v>2.639527152550795</v>
       </c>
       <c r="AI119" t="n">
-        <v>0.3269691005024791</v>
+        <v>0.3241265598170306</v>
       </c>
       <c r="AJ119" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         </is>
       </c>
       <c r="AN119" t="n">
-        <v>12883.23649799868</v>
+        <v>12316.16101992753</v>
       </c>
     </row>
     <row r="120">
@@ -16260,28 +16260,28 @@
         <v>-0.7415942621217906</v>
       </c>
       <c r="P120" t="n">
-        <v>20394</v>
+        <v>1.195823533514361</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.195823533514361</v>
+        <v>1.484717812925452</v>
       </c>
       <c r="R120" t="n">
-        <v>1.484717812925452</v>
+        <v>2.346839603726071</v>
       </c>
       <c r="S120" t="n">
-        <v>2.346839603726071</v>
+        <v>1.292000098454586</v>
       </c>
       <c r="T120" t="n">
-        <v>1.292000098454586</v>
+        <v>-1.397671213806724</v>
       </c>
       <c r="U120" t="n">
-        <v>-1.397671213806724</v>
+        <v>-0.6025109688605468</v>
       </c>
       <c r="V120" t="n">
-        <v>-0.6025109688605468</v>
+        <v>-0.3260152934025535</v>
       </c>
       <c r="W120" t="n">
-        <v>-0.3260152934025535</v>
+        <v>20527</v>
       </c>
       <c r="X120" t="n">
         <v>-0.0359945506247498</v>
@@ -16302,7 +16302,7 @@
         <v>-0.2112799741525325</v>
       </c>
       <c r="AD120" t="n">
-        <v>-0.3410603989047224</v>
+        <v>-0.3423049907472439</v>
       </c>
       <c r="AE120" t="n">
         <v>-0.3260152934025554</v>
@@ -16311,13 +16311,13 @@
         <v>-1.628714103894219</v>
       </c>
       <c r="AG120" t="n">
-        <v>-3.347866566982694</v>
+        <v>-3.347379742387762</v>
       </c>
       <c r="AH120" t="n">
-        <v>2.926065205795342</v>
+        <v>2.925677352899243</v>
       </c>
       <c r="AI120" t="n">
-        <v>-0.8275201414821827</v>
+        <v>-0.8327085076565792</v>
       </c>
       <c r="AJ120" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         </is>
       </c>
       <c r="AN120" t="n">
-        <v>-16876.44576538763</v>
+        <v>-17093.0075366666</v>
       </c>
     </row>
   </sheetData>
